--- a/Resultados/CEN02.xlsx
+++ b/Resultados/CEN02.xlsx
@@ -479,7 +479,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cenário 02 - 75% de market share</t>
+          <t>Cenário 02 - 75% de market share com navio de 3500</t>
         </is>
       </c>
     </row>
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>194230.7140098932</v>
+        <v>188069.2215176301</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2852139706459518</v>
+        <v>0.2761662577351396</v>
       </c>
     </row>
   </sheetData>
@@ -637,7 +637,7 @@
         <v>5208</v>
       </c>
       <c r="N2" t="n">
-        <v>6291</v>
+        <v>6064.505789909016</v>
       </c>
     </row>
     <row r="3">
@@ -725,7 +725,7 @@
         <v>469</v>
       </c>
       <c r="N4" t="n">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5">
@@ -817,7 +817,7 @@
         <v>1158</v>
       </c>
       <c r="N6" t="n">
-        <v>1188</v>
+        <v>978.8846153846154</v>
       </c>
     </row>
     <row r="7">
@@ -890,22 +890,22 @@
         <v>550</v>
       </c>
       <c r="I8" t="n">
-        <v>542</v>
+        <v>332.3389088012746</v>
       </c>
       <c r="J8" t="n">
-        <v>453</v>
+        <v>302.3759458383116</v>
       </c>
       <c r="K8" t="n">
         <v>582</v>
       </c>
       <c r="L8" t="n">
-        <v>691</v>
+        <v>583.3389088012746</v>
       </c>
       <c r="M8" t="n">
-        <v>777</v>
+        <v>700.0426125049783</v>
       </c>
       <c r="N8" t="n">
-        <v>614</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9">
@@ -1073,7 +1073,7 @@
         <v>330</v>
       </c>
       <c r="J12" t="n">
-        <v>258</v>
+        <v>208.2222222222222</v>
       </c>
       <c r="K12" t="n">
         <v>307</v>
@@ -1235,16 +1235,16 @@
         <v>625</v>
       </c>
       <c r="D16" t="n">
-        <v>845</v>
+        <v>545.5240939864598</v>
       </c>
       <c r="E16" t="n">
-        <v>895.7516338232564</v>
+        <v>253.3389088012746</v>
       </c>
       <c r="F16" t="n">
-        <v>1102.962962962963</v>
+        <v>238.962962962963</v>
       </c>
       <c r="G16" t="n">
-        <v>964.7145967862193</v>
+        <v>255</v>
       </c>
       <c r="H16" t="n">
         <v>1108</v>
@@ -1253,13 +1253,13 @@
         <v>979</v>
       </c>
       <c r="J16" t="n">
-        <v>1446</v>
+        <v>932.9685384309042</v>
       </c>
       <c r="K16" t="n">
         <v>849</v>
       </c>
       <c r="L16" t="n">
-        <v>1307</v>
+        <v>772.8944643568301</v>
       </c>
       <c r="M16" t="n">
         <v>948</v>
@@ -1330,13 +1330,13 @@
         <v>1507</v>
       </c>
       <c r="E18" t="n">
-        <v>1440</v>
+        <v>1154.615384615385</v>
       </c>
       <c r="F18" t="n">
-        <v>1248.472850508766</v>
+        <v>1146.467328370554</v>
       </c>
       <c r="G18" t="n">
-        <v>1346</v>
+        <v>1087.928866832093</v>
       </c>
       <c r="H18" t="n">
         <v>1149</v>
@@ -1415,16 +1415,16 @@
         <v>171</v>
       </c>
       <c r="D20" t="n">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="E20" t="n">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="F20" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="H20" t="n">
         <v>159</v>
@@ -1433,13 +1433,13 @@
         <v>171</v>
       </c>
       <c r="J20" t="n">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="K20" t="n">
         <v>121</v>
       </c>
       <c r="L20" t="n">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="M20" t="n">
         <v>153</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>265.1999999999998</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>986.6000000000004</v>
+        <v>1212.388089330025</v>
       </c>
       <c r="G2" t="n">
-        <v>626.3230769230768</v>
+        <v>341.977336641854</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>223.8</v>
+        <v>986.3999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>285.1897205898679</v>
+        <v>142.4</v>
       </c>
       <c r="E3" t="n">
-        <v>330.0102794101321</v>
+        <v>472.8000000000001</v>
       </c>
       <c r="F3" t="n">
         <v>265.3999999999999</v>
@@ -1640,22 +1640,22 @@
         <v>218.4</v>
       </c>
       <c r="I3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>135.6</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>158.8</v>
+        <v>374.4</v>
       </c>
       <c r="L3" t="n">
-        <v>268.2</v>
+        <v>197</v>
       </c>
       <c r="M3" t="n">
-        <v>335.4</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>355.9999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1666,31 +1666,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>486.4</v>
+        <v>781.5956989247316</v>
       </c>
       <c r="D4" t="n">
-        <v>409.2</v>
+        <v>646.0043010752686</v>
       </c>
       <c r="E4" t="n">
-        <v>536.8000000000001</v>
+        <v>223.2179211469536</v>
       </c>
       <c r="F4" t="n">
-        <v>867.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>801.162091405065</v>
+        <v>363.6543209876544</v>
       </c>
       <c r="H4" t="n">
-        <v>767.4413942700432</v>
+        <v>473.5555555555555</v>
       </c>
       <c r="I4" t="n">
-        <v>523</v>
+        <v>127.5110137616713</v>
       </c>
       <c r="J4" t="n">
-        <v>687.8</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>627</v>
+        <v>1188.035302447011</v>
       </c>
       <c r="L4" t="n">
         <v>307.6</v>
@@ -1699,7 +1699,7 @@
         <v>459.8</v>
       </c>
       <c r="N4" t="n">
-        <v>526.0000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1710,37 +1710,37 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>39.8</v>
+        <v>47.59999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>39.59999999999999</v>
+        <v>23.82716049382718</v>
       </c>
       <c r="E5" t="n">
-        <v>57</v>
+        <v>72.77283950617282</v>
       </c>
       <c r="F5" t="n">
         <v>70.40000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40000000000001</v>
+        <v>33.4571254381954</v>
       </c>
       <c r="H5" t="n">
-        <v>31.8</v>
+        <v>51.74287456180461</v>
       </c>
       <c r="I5" t="n">
-        <v>18.44984910836762</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="J5" t="n">
-        <v>44.15015089163238</v>
+        <v>12.93333333333333</v>
       </c>
       <c r="K5" t="n">
-        <v>23.8</v>
+        <v>64.8</v>
       </c>
       <c r="L5" t="n">
         <v>10.6</v>
       </c>
       <c r="M5" t="n">
-        <v>19</v>
+        <v>11.2</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -1938,16 +1938,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>438.2000000000003</v>
       </c>
       <c r="D10" t="n">
-        <v>2067.258837635494</v>
+        <v>704.4641466776944</v>
       </c>
       <c r="E10" t="n">
-        <v>160.2387131099178</v>
+        <v>955.5127763992276</v>
       </c>
       <c r="F10" t="n">
-        <v>490.0382099670048</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1956,13 +1956,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>443.1999999999994</v>
+        <v>71.16236559139622</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>53.80000000000018</v>
+        <v>123.6706699751871</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>81.54116236450575</v>
+        <v>947.5669644334158</v>
       </c>
     </row>
     <row r="11">
@@ -1985,13 +1985,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>4.800000000000011</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>28.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>75.60000000000001</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2044,16 +2044,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>254.4</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>242.4</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>417.9145967862196</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -2070,16 +2070,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>46.13999999999999</v>
+        <v>26.32839506172839</v>
       </c>
       <c r="D13" t="n">
-        <v>2.022222222222233</v>
+        <v>38.67160493827161</v>
       </c>
       <c r="E13" t="n">
-        <v>39.57777777777777</v>
+        <v>2.485871056241436</v>
       </c>
       <c r="F13" t="n">
-        <v>21</v>
+        <v>41.71412894375857</v>
       </c>
       <c r="G13" t="n">
         <v>18.4</v>
@@ -2088,19 +2088,19 @@
         <v>11.6</v>
       </c>
       <c r="I13" t="n">
-        <v>8.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>14</v>
+        <v>22.4</v>
       </c>
       <c r="K13" t="n">
         <v>16.2</v>
       </c>
       <c r="L13" t="n">
-        <v>9.555555555555555</v>
+        <v>21.2</v>
       </c>
       <c r="M13" t="n">
-        <v>12.10444444444438</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>952.4632056557982</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>758.8469644334167</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -2139,19 +2139,19 @@
         <v>1360</v>
       </c>
       <c r="J14" t="n">
-        <v>910.4876923076914</v>
+        <v>1234.293990074441</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.312307692308</v>
+        <v>1158.506009925558</v>
       </c>
       <c r="M14" t="n">
         <v>2554</v>
       </c>
       <c r="N14" t="n">
-        <v>1451.536794344204</v>
+        <v>1209.543440860214</v>
       </c>
     </row>
     <row r="15">
@@ -3769,7 +3769,7 @@
         <v>4446</v>
       </c>
       <c r="P26" t="n">
-        <v>5374</v>
+        <v>5147.505789909016</v>
       </c>
     </row>
     <row r="27">
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -5713,7 +5713,7 @@
         <v>306</v>
       </c>
       <c r="P66" t="n">
-        <v>331</v>
+        <v>121.8846153846154</v>
       </c>
     </row>
     <row r="67">
@@ -5890,22 +5890,22 @@
         <v>234</v>
       </c>
       <c r="K70" t="n">
-        <v>330</v>
+        <v>120.3389088012746</v>
       </c>
       <c r="L70" t="n">
-        <v>243</v>
+        <v>92.37594583831162</v>
       </c>
       <c r="M70" t="n">
         <v>330</v>
       </c>
       <c r="N70" t="n">
-        <v>493</v>
+        <v>385.3389088012746</v>
       </c>
       <c r="O70" t="n">
-        <v>495</v>
+        <v>418.0426125049783</v>
       </c>
       <c r="P70" t="n">
-        <v>420</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -6673,7 +6673,7 @@
         <v>114</v>
       </c>
       <c r="L86" t="n">
-        <v>118</v>
+        <v>68.22222222222223</v>
       </c>
       <c r="M86" t="n">
         <v>153</v>
@@ -8602,13 +8602,13 @@
         <v>387</v>
       </c>
       <c r="G126" t="n">
-        <v>546</v>
+        <v>253.3389088012746</v>
       </c>
       <c r="H126" t="n">
-        <v>864</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>709.7145967862193</v>
+        <v>0</v>
       </c>
       <c r="J126" t="n">
         <v>656</v>
@@ -8617,7 +8617,7 @@
         <v>638</v>
       </c>
       <c r="L126" t="n">
-        <v>857</v>
+        <v>384.5240939864598</v>
       </c>
       <c r="M126" t="n">
         <v>331</v>
@@ -8987,10 +8987,10 @@
         <v>111</v>
       </c>
       <c r="F134" t="n">
-        <v>165</v>
+        <v>96.15929908403052</v>
       </c>
       <c r="G134" t="n">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>51</v>
       </c>
       <c r="L134" t="n">
-        <v>135</v>
+        <v>94.44444444444444</v>
       </c>
       <c r="M134" t="n">
         <v>52</v>
@@ -9375,10 +9375,10 @@
         <v>180</v>
       </c>
       <c r="F142" t="n">
-        <v>293</v>
+        <v>62.36479490242925</v>
       </c>
       <c r="G142" t="n">
-        <v>85.7516338232564</v>
+        <v>0</v>
       </c>
       <c r="H142" t="n">
         <v>238.962962962963</v>
@@ -9399,7 +9399,7 @@
         <v>466</v>
       </c>
       <c r="N142" t="n">
-        <v>723</v>
+        <v>188.8944643568301</v>
       </c>
       <c r="O142" t="n">
         <v>345</v>
@@ -10357,10 +10357,10 @@
         <v>429</v>
       </c>
       <c r="H162" t="n">
-        <v>441</v>
+        <v>375.3134822167082</v>
       </c>
       <c r="I162" t="n">
-        <v>501</v>
+        <v>242.9288668320929</v>
       </c>
       <c r="J162" t="n">
         <v>380</v>
@@ -10549,10 +10549,10 @@
         <v>21</v>
       </c>
       <c r="H166" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J166" t="n">
         <v>20</v>
@@ -10742,10 +10742,10 @@
         <v>296</v>
       </c>
       <c r="G170" t="n">
-        <v>273</v>
+        <v>43.11538461538462</v>
       </c>
       <c r="H170" t="n">
-        <v>195.4728505087663</v>
+        <v>159.1538461538462</v>
       </c>
       <c r="I170" t="n">
         <v>218</v>
@@ -10931,10 +10931,10 @@
         <v>87</v>
       </c>
       <c r="F174" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10949,13 +10949,13 @@
         <v>91</v>
       </c>
       <c r="L174" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="M174" t="n">
         <v>58</v>
       </c>
       <c r="N174" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="O174" t="n">
         <v>61</v>
@@ -11130,7 +11130,7 @@
         <v>784</v>
       </c>
       <c r="G178" t="n">
-        <v>738</v>
+        <v>682.5</v>
       </c>
       <c r="H178" t="n">
         <v>612</v>
@@ -11319,7 +11319,7 @@
         <v>63</v>
       </c>
       <c r="F182" t="n">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="G182" t="n">
         <v>0</v>
@@ -11343,7 +11343,7 @@
         <v>45</v>
       </c>
       <c r="N182" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="O182" t="n">
         <v>58</v>
@@ -12699,7 +12699,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>407.260099255582</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -12720,22 +12720,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>20.2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>67.40000000000003</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>21.99999999999996</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -12744,13 +12744,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2.599999999999988</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="N7" t="n">
-        <v>74.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -12765,25 +12765,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>224.9662551440329</v>
+        <v>646.0043010752686</v>
       </c>
       <c r="F8" t="n">
-        <v>22.47041609510748</v>
+        <v>223.2179211469536</v>
       </c>
       <c r="G8" t="n">
-        <v>763.6648462269666</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>277.1770010524116</v>
+        <v>363.6543209876544</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>221.5939643347051</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>127.5110137616713</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -12792,13 +12792,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>307.6</v>
       </c>
       <c r="N8" t="n">
-        <v>220.0666666666665</v>
+        <v>459.8</v>
       </c>
       <c r="O8" t="n">
-        <v>180.1037037037037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -12810,37 +12810,37 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14.8</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>3.25185185185186</v>
+        <v>23.82716049382718</v>
       </c>
       <c r="F9" t="n">
-        <v>13.87481481481482</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>19.1428745618046</v>
       </c>
       <c r="H9" t="n">
-        <v>37.77777777777778</v>
+        <v>33.4571254381954</v>
       </c>
       <c r="I9" t="n">
-        <v>6.913580246913579</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.898491083676268</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="K9" t="n">
-        <v>44.15015089163238</v>
+        <v>12.93333333333333</v>
       </c>
       <c r="L9" t="n">
-        <v>11.85999999999993</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>10.6</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -13088,19 +13088,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>39.92514691188672</v>
+        <v>711.5999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>146.8972058986793</v>
+        <v>142.4</v>
       </c>
       <c r="F15" t="n">
-        <v>309.8102794101321</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>69.68888888888881</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>57.81111111111113</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -13112,16 +13112,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>31.48888888888889</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>55.16790123456789</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>7.936899862825726</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>168.6736777930194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -13133,40 +13133,40 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>165.7777777777778</v>
       </c>
       <c r="E16" t="n">
-        <v>184.2337448559672</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>514.3295839048926</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>103.7351537730335</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>393.3184236859867</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>402.9140641365882</v>
+        <v>251.9615912208505</v>
       </c>
       <c r="J16" t="n">
-        <v>523</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>687.8</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>542.3939968001217</v>
+        <v>1168.853223593965</v>
       </c>
       <c r="M16" t="n">
-        <v>307.6</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>74.93333333333338</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>345.8962962962964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -13178,37 +13178,37 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>16.59999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>36.34814814814813</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>43.12518518518519</v>
+        <v>72.77283950617282</v>
       </c>
       <c r="G17" t="n">
-        <v>63.73333333333334</v>
+        <v>51.2571254381954</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>14.17530864197531</v>
+        <v>51.74287456180461</v>
       </c>
       <c r="J17" t="n">
-        <v>10.55135802469135</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>11.94000000000007</v>
+        <v>64.8</v>
       </c>
       <c r="M17" t="n">
-        <v>10.6</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -13233,13 +13233,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>265.1999999999998</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>986.6000000000004</v>
+        <v>1212.388089330025</v>
       </c>
       <c r="H18" t="n">
-        <v>626.3230769230768</v>
+        <v>341.977336641854</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -13251,7 +13251,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>833.2000000000007</v>
+        <v>425.9399007444188</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -13272,40 +13272,40 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>173.4748530881133</v>
+        <v>274.8</v>
       </c>
       <c r="E19" t="n">
-        <v>138.2925146911887</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>472.8000000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>195.7111111111111</v>
+        <v>265.3999999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>316.9888888888888</v>
+        <v>442.2</v>
       </c>
       <c r="I19" t="n">
-        <v>196.4</v>
+        <v>218.4</v>
       </c>
       <c r="J19" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>135.6</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>124.7111111111111</v>
+        <v>374.4</v>
       </c>
       <c r="M19" t="n">
-        <v>213.0320987654321</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>253.0631001371742</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>187.3263222069806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -13317,7 +13317,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>381.4</v>
+        <v>615.8179211469537</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -13329,10 +13329,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>130.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>364.5273301334551</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -13341,13 +13341,13 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>84.60600319987827</v>
+        <v>19.18207885304619</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>164.8</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -13362,7 +13362,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -13371,13 +13371,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>6.666666666666666</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>15.62222222222223</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>10.71111111111111</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -14357,7 +14357,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>71.16236559139622</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -14372,7 +14372,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>673.2613454645731</v>
       </c>
     </row>
     <row r="43">
@@ -14541,13 +14541,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>443.1999999999994</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>53.80000000000018</v>
+        <v>123.6706699751871</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -14556,7 +14556,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>81.54116236450575</v>
+        <v>274.3056189688427</v>
       </c>
     </row>
     <row r="47">
@@ -14634,13 +14634,13 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>223.1254032137805</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>242.4</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>417.9145967862196</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -14658,7 +14658,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>21.47333333333333</v>
+        <v>20.97283950617282</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -14685,7 +14685,7 @@
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>21.2</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -14945,7 +14945,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>75.60000000000001</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -14960,7 +14960,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
@@ -14999,10 +14999,10 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>31.27459678621949</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -15026,37 +15026,37 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>24.66666666666666</v>
+        <v>5.355555555555564</v>
       </c>
       <c r="E57" t="n">
-        <v>2.022222222222233</v>
+        <v>38.67160493827161</v>
       </c>
       <c r="F57" t="n">
-        <v>39.57777777777777</v>
+        <v>2.485871056241436</v>
       </c>
       <c r="G57" t="n">
-        <v>21</v>
+        <v>41.71412894375857</v>
       </c>
       <c r="H57" t="n">
-        <v>18.4</v>
+        <v>2.999999999999998</v>
       </c>
       <c r="I57" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>8.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>14</v>
+        <v>22.4</v>
       </c>
       <c r="L57" t="n">
-        <v>11.75555555555555</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>12.10444444444438</v>
+        <v>0</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -15075,16 +15075,16 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>438.2000000000003</v>
       </c>
       <c r="E58" t="n">
-        <v>2067.258837635494</v>
+        <v>704.4641466776944</v>
       </c>
       <c r="F58" t="n">
-        <v>160.2387131099178</v>
+        <v>955.5127763992276</v>
       </c>
       <c r="G58" t="n">
-        <v>490.0382099670048</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -15123,10 +15123,10 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>4.800000000000011</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>28.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -15222,10 +15222,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -15234,10 +15234,10 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>4.444444444444445</v>
+        <v>14</v>
       </c>
       <c r="M61" t="n">
-        <v>9.555555555555555</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -15281,7 +15281,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>628.1999999999998</v>
+        <v>557.0376344086035</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
@@ -15293,10 +15293,10 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>2101.494354753614</v>
+        <v>1901.444444444445</v>
       </c>
       <c r="O62" t="n">
-        <v>699.705645246388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -15477,10 +15477,10 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>204.9859871267287</v>
+        <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>0</v>
+        <v>35.37899641577278</v>
       </c>
     </row>
     <row r="67">
@@ -15999,10 +15999,10 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>952.4632056557982</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>758.8469644334167</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -16017,22 +16017,22 @@
         <v>1037.2</v>
       </c>
       <c r="J78" t="n">
-        <v>731.8000000000002</v>
+        <v>802.9623655913965</v>
       </c>
       <c r="K78" t="n">
-        <v>910.4876923076914</v>
+        <v>1234.293990074441</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>1482.312307692308</v>
+        <v>1158.506009925558</v>
       </c>
       <c r="N78" t="n">
-        <v>247.5196581196579</v>
+        <v>652.5555555555554</v>
       </c>
       <c r="O78" t="n">
-        <v>751.8311490978158</v>
+        <v>1174.164444444441</v>
       </c>
     </row>
     <row r="79">
@@ -17292,13 +17292,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>16.44154691152532</v>
+        <v>16.32236992901753</v>
       </c>
       <c r="E2" t="n">
         <v>167.926627</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4255647494313262</v>
+        <v>0.4286719895514476</v>
       </c>
       <c r="G2" t="n">
         <v>365.75</v>
@@ -17331,7 +17331,7 @@
         <v>0.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.980356416097993</v>
+        <v>0.9834636562181143</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -17349,10 +17349,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>89942.51692956839</v>
+        <v>89726.15571801081</v>
       </c>
       <c r="X2" t="n">
-        <v>6338.020926230628</v>
+        <v>6384.29767478762</v>
       </c>
       <c r="Y2" t="n">
         <v>11803.7475</v>
@@ -17379,13 +17379,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>16.44154691152532</v>
+        <v>16.32236992901753</v>
       </c>
       <c r="E3" t="n">
         <v>1259.179724</v>
       </c>
       <c r="F3" t="n">
-        <v>3.191051433034896</v>
+        <v>3.214350738372913</v>
       </c>
       <c r="G3" t="n">
         <v>1148.25</v>
@@ -17418,7 +17418,7 @@
         <v>0.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.397926433034896</v>
+        <v>4.421225738372913</v>
       </c>
       <c r="R3" t="n">
         <v>690.25</v>
@@ -17436,10 +17436,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>674424.2748545129</v>
+        <v>672801.913615438</v>
       </c>
       <c r="X3" t="n">
-        <v>47524.96720247532</v>
+        <v>47871.96841673546</v>
       </c>
       <c r="Y3" t="n">
         <v>25677.4725</v>
@@ -17466,13 +17466,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>16.44154691152532</v>
+        <v>16.32236992901753</v>
       </c>
       <c r="E4" t="n">
         <v>478</v>
       </c>
       <c r="F4" t="n">
-        <v>1.211362092255768</v>
+        <v>1.220206793087031</v>
       </c>
       <c r="G4" t="n">
         <v>419.75</v>
@@ -17505,7 +17505,7 @@
         <v>0.2083333333333333</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.298167647811324</v>
+        <v>2.307012348642586</v>
       </c>
       <c r="R4" t="n">
         <v>2698.5</v>
@@ -17523,10 +17523,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>256019.6906255593</v>
+        <v>255403.8224873604</v>
       </c>
       <c r="X4" t="n">
-        <v>18041.0579123836</v>
+        <v>18172.78381080377</v>
       </c>
       <c r="Y4" t="n">
         <v>23122.875</v>
@@ -17553,13 +17553,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>16.44154691152532</v>
+        <v>16.32236992901753</v>
       </c>
       <c r="E5" t="n">
         <v>1569</v>
       </c>
       <c r="F5" t="n">
-        <v>3.97620736976841</v>
+        <v>4.005239452622491</v>
       </c>
       <c r="G5" t="n">
         <v>293</v>
@@ -17592,7 +17592,7 @@
         <v>0.2083333333333333</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.800686536435076</v>
+        <v>4.829718619289157</v>
       </c>
       <c r="R5" t="n">
         <v>2528.25</v>
@@ -17610,10 +17610,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>840365.8882667416</v>
+        <v>838344.3461980509</v>
       </c>
       <c r="X5" t="n">
-        <v>59218.45159943488</v>
+        <v>59650.83221579729</v>
       </c>
       <c r="Y5" t="n">
         <v>17541.61875</v>
@@ -17640,7 +17640,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>16.44154691152532</v>
+        <v>16.32236992901753</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -17727,13 +17727,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>16.44154691152532</v>
+        <v>16.32236992901753</v>
       </c>
       <c r="E7" t="n">
         <v>1569</v>
       </c>
       <c r="F7" t="n">
-        <v>3.97620736976841</v>
+        <v>4.005239452622491</v>
       </c>
       <c r="G7" t="n">
         <v>1230</v>
@@ -17748,10 +17748,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>254.4103485675108</v>
+        <v>185.92460752934</v>
       </c>
       <c r="L7" t="n">
-        <v>0.30286946258037</v>
+        <v>0.2213388184873096</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -17760,13 +17760,13 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1.767155176866084</v>
+        <v>1.685624532773024</v>
       </c>
       <c r="P7" t="n">
         <v>0.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.993362546634494</v>
+        <v>5.940863985395515</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -17781,16 +17781,16 @@
         <v>1867090</v>
       </c>
       <c r="V7" t="n">
-        <v>320005.8939586008</v>
+        <v>228633.2603261698</v>
       </c>
       <c r="W7" t="n">
-        <v>840365.8882667416</v>
+        <v>838344.3461980509</v>
       </c>
       <c r="X7" t="n">
-        <v>59218.45159943488</v>
+        <v>59650.83221579729</v>
       </c>
       <c r="Y7" t="n">
-        <v>42916.99354300281</v>
+        <v>41182.34755927886</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
@@ -17814,13 +17814,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>16.44154691152532</v>
+        <v>16.32236992901753</v>
       </c>
       <c r="E8" t="n">
         <v>478</v>
       </c>
       <c r="F8" t="n">
-        <v>1.211362092255768</v>
+        <v>1.220206793087031</v>
       </c>
       <c r="G8" t="n">
         <v>141.5</v>
@@ -17841,25 +17841,25 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>7.228395061728384</v>
+        <v>55.39849108367627</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0075295781893004</v>
+        <v>0.05770676154549612</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2059670781893004</v>
+        <v>0.2561442615454961</v>
       </c>
       <c r="P8" t="n">
         <v>0.2083333333333333</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.625662503778402</v>
+        <v>1.68468438796586</v>
       </c>
       <c r="R8" t="n">
-        <v>2702.510348567511</v>
+        <v>2634.02460752934</v>
       </c>
       <c r="S8" t="n">
-        <v>0.7180956069050815</v>
+        <v>0.6998979671435103</v>
       </c>
       <c r="T8" t="n">
         <v>586685.6675</v>
@@ -17871,13 +17871,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>256019.6906255593</v>
+        <v>255403.8224873604</v>
       </c>
       <c r="X8" t="n">
-        <v>18041.0579123836</v>
+        <v>18172.78381080377</v>
       </c>
       <c r="Y8" t="n">
-        <v>8814.655555555557</v>
+        <v>9882.225308641975</v>
       </c>
       <c r="Z8" t="n">
         <v>120000</v>
@@ -17901,13 +17901,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>16.44154691152532</v>
+        <v>16.32236992901753</v>
       </c>
       <c r="E9" t="n">
         <v>1259.179724</v>
       </c>
       <c r="F9" t="n">
-        <v>3.191051433034896</v>
+        <v>3.214350738372913</v>
       </c>
       <c r="G9" t="n">
         <v>227.75</v>
@@ -17940,13 +17940,13 @@
         <v>0.2083333333333333</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.784014395997859</v>
+        <v>3.807313701335876</v>
       </c>
       <c r="R9" t="n">
-        <v>2832.531953505782</v>
+        <v>2721.376116445664</v>
       </c>
       <c r="S9" t="n">
-        <v>0.7526442047886794</v>
+        <v>0.7231085109412764</v>
       </c>
       <c r="T9" t="n">
         <v>1246666.145</v>
@@ -17955,13 +17955,13 @@
         <v>419862</v>
       </c>
       <c r="V9" t="n">
-        <v>4002</v>
+        <v>4350</v>
       </c>
       <c r="W9" t="n">
-        <v>674424.2748545129</v>
+        <v>672801.913615438</v>
       </c>
       <c r="X9" t="n">
-        <v>47524.96720247532</v>
+        <v>47871.96841673546</v>
       </c>
       <c r="Y9" t="n">
         <v>12615.88</v>
@@ -17988,13 +17988,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>16.44154691152532</v>
+        <v>16.32236992901753</v>
       </c>
       <c r="E10" t="n">
         <v>167.926627</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4255647494313262</v>
+        <v>0.4286719895514476</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -18015,25 +18015,25 @@
         <v>0.2160833333333333</v>
       </c>
       <c r="M10" t="n">
-        <v>107.1723431946409</v>
+        <v>75.92611644566377</v>
       </c>
       <c r="N10" t="n">
-        <v>0.08931028599553407</v>
+        <v>0.06327176370471981</v>
       </c>
       <c r="O10" t="n">
-        <v>1.354976952662201</v>
+        <v>1.328938430371386</v>
       </c>
       <c r="P10" t="n">
         <v>0.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.030541702093527</v>
+        <v>2.007610419922834</v>
       </c>
       <c r="R10" t="n">
-        <v>2864.681953505783</v>
+        <v>2753.526116445664</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7611869190743936</v>
+        <v>0.7316512252269908</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -18045,13 +18045,13 @@
         <v>337089.9999999999</v>
       </c>
       <c r="W10" t="n">
-        <v>89942.51692956839</v>
+        <v>89726.15571801081</v>
       </c>
       <c r="X10" t="n">
-        <v>6338.020926230628</v>
+        <v>6384.29767478762</v>
       </c>
       <c r="Y10" t="n">
-        <v>34147.48964484099</v>
+        <v>33593.49404458162</v>
       </c>
       <c r="Z10" t="n">
         <v>190000</v>
@@ -18075,7 +18075,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>16.44154691152532</v>
+        <v>16.32236992901753</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -18102,25 +18102,25 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>402.2096103111415</v>
+        <v>316.8</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3351746752592846</v>
+        <v>0.264</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4235080085926179</v>
+        <v>0.3523333333333333</v>
       </c>
       <c r="P11" t="n">
         <v>0.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.6735080085926179</v>
+        <v>0.6023333333333333</v>
       </c>
       <c r="R11" t="n">
-        <v>908.3596103111415</v>
+        <v>828.4499999999999</v>
       </c>
       <c r="S11" t="n">
-        <v>0.2413641250255319</v>
+        <v>0.220131</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -18138,7 +18138,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>14329.55639081654</v>
+        <v>12815.244</v>
       </c>
       <c r="Z11" t="n">
         <v>110000</v>
@@ -18239,10 +18239,10 @@
         <v>23447216</v>
       </c>
       <c r="D2" t="n">
-        <v>2266235.449723111</v>
+        <v>2965100.810035843</v>
       </c>
       <c r="E2" t="n">
-        <v>6713.660481698547</v>
+        <v>9742.770551726253</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -18254,19 +18254,19 @@
         <v>26080166.853</v>
       </c>
       <c r="I2" t="n">
-        <v>14728868.68027655</v>
+        <v>14802019.44454315</v>
       </c>
       <c r="J2" t="n">
-        <v>1917158.584935338</v>
+        <v>1925315.474214891</v>
       </c>
       <c r="K2" t="n">
         <v>16740000</v>
       </c>
       <c r="L2" t="n">
-        <v>95146359.22841671</v>
+        <v>95929561.35234562</v>
       </c>
       <c r="M2" t="n">
-        <v>34991188.07158329</v>
+        <v>34207985.94765438</v>
       </c>
     </row>
     <row r="3">
@@ -18274,16 +18274,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>144949681.2</v>
+        <v>140796359.3146276</v>
       </c>
       <c r="C3" t="n">
-        <v>26664318</v>
+        <v>25723912.42851454</v>
       </c>
       <c r="D3" t="n">
-        <v>4004345.063989731</v>
+        <v>3073166.999785559</v>
       </c>
       <c r="E3" t="n">
-        <v>4996.966966740188</v>
+        <v>8652.333259810679</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -18292,22 +18292,22 @@
         <v>9960000</v>
       </c>
       <c r="H3" t="n">
-        <v>30562434.396</v>
+        <v>29424958.42849582</v>
       </c>
       <c r="I3" t="n">
-        <v>15124164.49767907</v>
+        <v>14967536.54264997</v>
       </c>
       <c r="J3" t="n">
-        <v>1951498.475678191</v>
+        <v>1940188.781939198</v>
       </c>
       <c r="K3" t="n">
         <v>16740000</v>
       </c>
       <c r="L3" t="n">
-        <v>105011757.4003137</v>
+        <v>101838415.5146449</v>
       </c>
       <c r="M3" t="n">
-        <v>39937923.79968628</v>
+        <v>38957943.79998273</v>
       </c>
     </row>
     <row r="4">
@@ -18315,16 +18315,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>156441504.9233784</v>
+        <v>147205094.2652734</v>
       </c>
       <c r="C4" t="n">
-        <v>27435340.94088186</v>
+        <v>25880541.9428055</v>
       </c>
       <c r="D4" t="n">
-        <v>1785469.813959916</v>
+        <v>2411644.940650879</v>
       </c>
       <c r="E4" t="n">
-        <v>4745.694461711532</v>
+        <v>8614.274054168498</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -18333,22 +18333,22 @@
         <v>9960000</v>
       </c>
       <c r="H4" t="n">
-        <v>30990636.90121929</v>
+        <v>28985040.51929868</v>
       </c>
       <c r="I4" t="n">
-        <v>15050810.06638927</v>
+        <v>14932822.34302336</v>
       </c>
       <c r="J4" t="n">
-        <v>1946454.238106768</v>
+        <v>1937372.989251593</v>
       </c>
       <c r="K4" t="n">
         <v>16740000</v>
       </c>
       <c r="L4" t="n">
-        <v>103913457.6550188</v>
+        <v>100856037.0090842</v>
       </c>
       <c r="M4" t="n">
-        <v>52528047.26835962</v>
+        <v>46349057.25618923</v>
       </c>
     </row>
     <row r="5">
@@ -18356,16 +18356,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>161862512.118803</v>
+        <v>149883325.4745823</v>
       </c>
       <c r="C5" t="n">
-        <v>28145930.99368297</v>
+        <v>26714498.63688999</v>
       </c>
       <c r="D5" t="n">
-        <v>3628359.620977245</v>
+        <v>2077531.038083146</v>
       </c>
       <c r="E5" t="n">
-        <v>4133.34483005892</v>
+        <v>8295.670693801972</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -18374,22 +18374,22 @@
         <v>9960000</v>
       </c>
       <c r="H5" t="n">
-        <v>31342755.98974185</v>
+        <v>29810429.78144445</v>
       </c>
       <c r="I5" t="n">
-        <v>15452523.58318647</v>
+        <v>14993476.14997698</v>
       </c>
       <c r="J5" t="n">
-        <v>1970322.138949635</v>
+        <v>1942209.872902487</v>
       </c>
       <c r="K5" t="n">
         <v>16740000</v>
       </c>
       <c r="L5" t="n">
-        <v>107244025.6713682</v>
+        <v>102246441.1499909</v>
       </c>
       <c r="M5" t="n">
-        <v>54618486.44743474</v>
+        <v>47636884.32459143</v>
       </c>
     </row>
     <row r="6">
@@ -18397,16 +18397,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>157459512.55035</v>
+        <v>145005349.0585139</v>
       </c>
       <c r="C6" t="n">
-        <v>27052953.61632532</v>
+        <v>25575260.80783016</v>
       </c>
       <c r="D6" t="n">
-        <v>2450350.774557044</v>
+        <v>1533031.603943978</v>
       </c>
       <c r="E6" t="n">
-        <v>4765.062839085531</v>
+        <v>8843.064947794754</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -18415,22 +18415,22 @@
         <v>9960000</v>
       </c>
       <c r="H6" t="n">
-        <v>30509075.54897835</v>
+        <v>29000575.75233334</v>
       </c>
       <c r="I6" t="n">
-        <v>15130841.33629246</v>
+        <v>14844779.73712591</v>
       </c>
       <c r="J6" t="n">
-        <v>1951938.576554975</v>
+        <v>1929551.610861704</v>
       </c>
       <c r="K6" t="n">
         <v>16740000</v>
       </c>
       <c r="L6" t="n">
-        <v>103799924.9155472</v>
+        <v>99592042.57704288</v>
       </c>
       <c r="M6" t="n">
-        <v>53659587.63480282</v>
+        <v>45413306.48147103</v>
       </c>
     </row>
     <row r="7">
@@ -18444,10 +18444,10 @@
         <v>24844766</v>
       </c>
       <c r="D7" t="n">
-        <v>2644391.575834403</v>
+        <v>2280293.041304679</v>
       </c>
       <c r="E7" t="n">
-        <v>5835.692843975701</v>
+        <v>9025.895684500072</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -18459,19 +18459,19 @@
         <v>28614790.815</v>
       </c>
       <c r="I7" t="n">
-        <v>14886018.96541105</v>
+        <v>14850209.90415088</v>
       </c>
       <c r="J7" t="n">
-        <v>1933349.150946773</v>
+        <v>1930066.689880717</v>
       </c>
       <c r="K7" t="n">
         <v>16740000</v>
       </c>
       <c r="L7" t="n">
-        <v>99629152.2000362</v>
+        <v>99229152.34602077</v>
       </c>
       <c r="M7" t="n">
-        <v>36517954.42996386</v>
+        <v>36917954.28397928</v>
       </c>
     </row>
     <row r="8">
@@ -18479,16 +18479,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>147076696.2</v>
+        <v>146388324.3257109</v>
       </c>
       <c r="C8" t="n">
-        <v>27008362</v>
+        <v>26708546.63958582</v>
       </c>
       <c r="D8" t="n">
-        <v>3178737.797805212</v>
+        <v>1969735.653303242</v>
       </c>
       <c r="E8" t="n">
-        <v>4577.371153008035</v>
+        <v>8068.256234278577</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -18497,22 +18497,22 @@
         <v>9960000</v>
       </c>
       <c r="H8" t="n">
-        <v>31657747.914</v>
+        <v>31120615.06784707</v>
       </c>
       <c r="I8" t="n">
-        <v>15235072.33566859</v>
+        <v>15019403.59817175</v>
       </c>
       <c r="J8" t="n">
-        <v>1958453.442597937</v>
+        <v>1944165.316027778</v>
       </c>
       <c r="K8" t="n">
         <v>16740000</v>
       </c>
       <c r="L8" t="n">
-        <v>105742950.8612248</v>
+        <v>103470534.53117</v>
       </c>
       <c r="M8" t="n">
-        <v>41333745.33877523</v>
+        <v>42917789.79454091</v>
       </c>
     </row>
     <row r="9">
@@ -18520,16 +18520,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>161323817.7800001</v>
+        <v>153875465.1957707</v>
       </c>
       <c r="C9" t="n">
-        <v>28932468</v>
+        <v>27804049.81600956</v>
       </c>
       <c r="D9" t="n">
-        <v>2606691.812872623</v>
+        <v>1651078.85376344</v>
       </c>
       <c r="E9" t="n">
-        <v>3716.493554189842</v>
+        <v>7622.816540648836</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -18538,22 +18538,22 @@
         <v>9960000</v>
       </c>
       <c r="H9" t="n">
-        <v>32998652.739</v>
+        <v>31614879.3644791</v>
       </c>
       <c r="I9" t="n">
-        <v>15411051.61744901</v>
+        <v>15069515.7747723</v>
       </c>
       <c r="J9" t="n">
-        <v>1968208.221309423</v>
+        <v>1947778.901647057</v>
       </c>
       <c r="K9" t="n">
         <v>16740000</v>
       </c>
       <c r="L9" t="n">
-        <v>108620788.8841852</v>
+        <v>104794925.5272121</v>
       </c>
       <c r="M9" t="n">
-        <v>52703028.89581482</v>
+        <v>49080539.66855858</v>
       </c>
     </row>
     <row r="10">
@@ -18567,10 +18567,10 @@
         <v>20751120</v>
       </c>
       <c r="D10" t="n">
-        <v>2516339.287050653</v>
+        <v>3379346.133567859</v>
       </c>
       <c r="E10" t="n">
-        <v>7933.141122829708</v>
+        <v>10917.73417603911</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -18582,19 +18582,19 @@
         <v>22882020.915</v>
       </c>
       <c r="I10" t="n">
-        <v>14621779.30349412</v>
+        <v>14688516.54993829</v>
       </c>
       <c r="J10" t="n">
-        <v>1901855.370756428</v>
+        <v>1911996.767386846</v>
       </c>
       <c r="K10" t="n">
         <v>16740000</v>
       </c>
       <c r="L10" t="n">
-        <v>89381048.01742405</v>
+        <v>90323918.10006903</v>
       </c>
       <c r="M10" t="n">
-        <v>27915177.74257594</v>
+        <v>26972307.65993096</v>
       </c>
     </row>
     <row r="11">
@@ -18602,16 +18602,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>148462492.44</v>
+        <v>142975259.5347072</v>
       </c>
       <c r="C11" t="n">
-        <v>27489632</v>
+        <v>26182486.67542812</v>
       </c>
       <c r="D11" t="n">
-        <v>3247710.047701962</v>
+        <v>2156447.812903226</v>
       </c>
       <c r="E11" t="n">
-        <v>4337.744630822891</v>
+        <v>8228.427470011946</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -18620,22 +18620,22 @@
         <v>9960000</v>
       </c>
       <c r="H11" t="n">
-        <v>32953974.924</v>
+        <v>31318379.70941458</v>
       </c>
       <c r="I11" t="n">
-        <v>15235243.04689364</v>
+        <v>14980804.59746185</v>
       </c>
       <c r="J11" t="n">
-        <v>1958463.608454953</v>
+        <v>1941230.979313943</v>
       </c>
       <c r="K11" t="n">
         <v>16740000</v>
       </c>
       <c r="L11" t="n">
-        <v>107589361.3716814</v>
+        <v>103287578.2019917</v>
       </c>
       <c r="M11" t="n">
-        <v>40873131.06831858</v>
+        <v>39687681.33271551</v>
       </c>
     </row>
     <row r="12">
@@ -18643,16 +18643,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>137605253.79</v>
+        <v>137352582.6779331</v>
       </c>
       <c r="C12" t="n">
-        <v>25625370</v>
+        <v>25515320.93588212</v>
       </c>
       <c r="D12" t="n">
-        <v>4107674.79767859</v>
+        <v>3678596.111111111</v>
       </c>
       <c r="E12" t="n">
-        <v>5094.52023394082</v>
+        <v>8362.561280519558</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -18661,22 +18661,22 @@
         <v>9960000</v>
       </c>
       <c r="H12" t="n">
-        <v>29987923.719</v>
+        <v>29790765.81840263</v>
       </c>
       <c r="I12" t="n">
-        <v>15270998.91365886</v>
+        <v>15171807.06613203</v>
       </c>
       <c r="J12" t="n">
-        <v>1960560.010582878</v>
+        <v>1954575.909511521</v>
       </c>
       <c r="K12" t="n">
         <v>16740000</v>
       </c>
       <c r="L12" t="n">
-        <v>103657621.9611543</v>
+        <v>102819428.4023199</v>
       </c>
       <c r="M12" t="n">
-        <v>33947631.82884572</v>
+        <v>34533154.27561316</v>
       </c>
     </row>
     <row r="13">
@@ -18684,16 +18684,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>149839389.21</v>
+        <v>145996996.7875559</v>
       </c>
       <c r="C13" t="n">
-        <v>27698940</v>
+        <v>26467723.2216708</v>
       </c>
       <c r="D13" t="n">
-        <v>2998540.847389241</v>
+        <v>2887181.287151914</v>
       </c>
       <c r="E13" t="n">
-        <v>4160.365531487965</v>
+        <v>8036.660965229916</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -18702,22 +18702,22 @@
         <v>9960000</v>
       </c>
       <c r="H13" t="n">
-        <v>33102117.321</v>
+        <v>30980879.08535484</v>
       </c>
       <c r="I13" t="n">
-        <v>15334816.04037662</v>
+        <v>15092617.71318241</v>
       </c>
       <c r="J13" t="n">
-        <v>1964149.436566964</v>
+        <v>1949377.659980645</v>
       </c>
       <c r="K13" t="n">
         <v>16740000</v>
       </c>
       <c r="L13" t="n">
-        <v>107802724.0108643</v>
+        <v>104085815.6283058</v>
       </c>
       <c r="M13" t="n">
-        <v>42036665.19913574</v>
+        <v>41911181.15925004</v>
       </c>
     </row>
     <row r="15">
@@ -19639,7 +19639,7 @@
         <v>784</v>
       </c>
       <c r="G18" t="n">
-        <v>738</v>
+        <v>682.5</v>
       </c>
       <c r="H18" t="n">
         <v>612</v>
@@ -19828,7 +19828,7 @@
         <v>63</v>
       </c>
       <c r="F22" t="n">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -19852,7 +19852,7 @@
         <v>45</v>
       </c>
       <c r="N22" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>58</v>
@@ -20027,10 +20027,10 @@
         <v>296</v>
       </c>
       <c r="G26" t="n">
-        <v>273</v>
+        <v>43.11538461538461</v>
       </c>
       <c r="H26" t="n">
-        <v>195.4728505087663</v>
+        <v>159.1538461538462</v>
       </c>
       <c r="I26" t="n">
         <v>218</v>
@@ -20216,10 +20216,10 @@
         <v>87</v>
       </c>
       <c r="F30" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -20234,13 +20234,13 @@
         <v>91</v>
       </c>
       <c r="L30" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>58</v>
       </c>
       <c r="N30" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>61</v>
@@ -20418,10 +20418,10 @@
         <v>429</v>
       </c>
       <c r="H34" t="n">
-        <v>441</v>
+        <v>375.3134822167082</v>
       </c>
       <c r="I34" t="n">
-        <v>501</v>
+        <v>242.9288668320928</v>
       </c>
       <c r="J34" t="n">
         <v>380</v>
@@ -20610,10 +20610,10 @@
         <v>21</v>
       </c>
       <c r="H38" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>20</v>
@@ -23712,10 +23712,10 @@
         <v>180</v>
       </c>
       <c r="F102" t="n">
-        <v>293</v>
+        <v>62.36479490242925</v>
       </c>
       <c r="G102" t="n">
-        <v>85.7516338232564</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
         <v>238.962962962963</v>
@@ -23736,7 +23736,7 @@
         <v>466</v>
       </c>
       <c r="N102" t="n">
-        <v>723</v>
+        <v>188.8944643568302</v>
       </c>
       <c r="O102" t="n">
         <v>345</v>
@@ -24100,10 +24100,10 @@
         <v>111</v>
       </c>
       <c r="F110" t="n">
-        <v>165</v>
+        <v>96.15929908403052</v>
       </c>
       <c r="G110" t="n">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -24118,7 +24118,7 @@
         <v>51</v>
       </c>
       <c r="L110" t="n">
-        <v>135</v>
+        <v>94.44444444444444</v>
       </c>
       <c r="M110" t="n">
         <v>52</v>
@@ -24491,13 +24491,13 @@
         <v>387</v>
       </c>
       <c r="G118" t="n">
-        <v>546</v>
+        <v>253.3389088012746</v>
       </c>
       <c r="H118" t="n">
-        <v>864</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>709.7145967862193</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
         <v>656</v>
@@ -24506,7 +24506,7 @@
         <v>638</v>
       </c>
       <c r="L118" t="n">
-        <v>857</v>
+        <v>384.5240939864598</v>
       </c>
       <c r="M118" t="n">
         <v>331</v>
@@ -28390,7 +28390,7 @@
         <v>114</v>
       </c>
       <c r="L198" t="n">
-        <v>118</v>
+        <v>68.22222222222223</v>
       </c>
       <c r="M198" t="n">
         <v>153</v>
@@ -41414,7 +41414,7 @@
         <v>4446</v>
       </c>
       <c r="P466" t="n">
-        <v>5374</v>
+        <v>5147.505789909016</v>
       </c>
     </row>
     <row r="467">
@@ -41994,7 +41994,7 @@
         <v>0</v>
       </c>
       <c r="P478" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
@@ -45298,7 +45298,7 @@
         <v>306</v>
       </c>
       <c r="P546" t="n">
-        <v>331</v>
+        <v>121.8846153846154</v>
       </c>
     </row>
     <row r="547">
@@ -45475,22 +45475,22 @@
         <v>234</v>
       </c>
       <c r="K550" t="n">
-        <v>330</v>
+        <v>120.3389088012746</v>
       </c>
       <c r="L550" t="n">
-        <v>243</v>
+        <v>92.37594583831162</v>
       </c>
       <c r="M550" t="n">
         <v>330</v>
       </c>
       <c r="N550" t="n">
-        <v>493</v>
+        <v>385.3389088012746</v>
       </c>
       <c r="O550" t="n">
-        <v>495</v>
+        <v>418.0426125049783</v>
       </c>
       <c r="P550" t="n">
-        <v>420</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551">
@@ -60702,10 +60702,10 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>204.9859871267287</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>35.37899641577278</v>
       </c>
     </row>
     <row r="55">
@@ -60874,7 +60874,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>628.1999999999998</v>
+        <v>557.0376344086035</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
@@ -60886,10 +60886,10 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>2101.494354753614</v>
+        <v>1901.444444444445</v>
       </c>
       <c r="O58" t="n">
-        <v>699.705645246388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -62534,13 +62534,13 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>443.1999999999994</v>
+        <v>0</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>53.80000000000018</v>
+        <v>123.6706699751871</v>
       </c>
       <c r="M94" t="n">
         <v>0</v>
@@ -62549,7 +62549,7 @@
         <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>81.54116236450575</v>
+        <v>274.3056189688427</v>
       </c>
     </row>
     <row r="95">
@@ -62627,13 +62627,13 @@
         <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>223.1254032137805</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>242.4</v>
+        <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>417.9145967862196</v>
+        <v>0</v>
       </c>
       <c r="N96" t="n">
         <v>0</v>
@@ -62651,7 +62651,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>21.47333333333333</v>
+        <v>20.97283950617282</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
@@ -62678,7 +62678,7 @@
         <v>0</v>
       </c>
       <c r="M97" t="n">
-        <v>0</v>
+        <v>21.2</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
@@ -62718,7 +62718,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
+        <v>71.16236559139622</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
@@ -62733,7 +62733,7 @@
         <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>0</v>
+        <v>673.2613454645731</v>
       </c>
     </row>
     <row r="99">
@@ -68624,7 +68624,7 @@
         <v>0</v>
       </c>
       <c r="L226" t="n">
-        <v>0</v>
+        <v>407.260099255582</v>
       </c>
       <c r="M226" t="n">
         <v>0</v>
@@ -68645,22 +68645,22 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="E227" t="n">
         <v>0</v>
       </c>
       <c r="F227" t="n">
-        <v>20.2</v>
+        <v>0</v>
       </c>
       <c r="G227" t="n">
         <v>0</v>
       </c>
       <c r="H227" t="n">
-        <v>67.40000000000003</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
-        <v>21.99999999999996</v>
+        <v>0</v>
       </c>
       <c r="J227" t="n">
         <v>0</v>
@@ -68669,13 +68669,13 @@
         <v>0</v>
       </c>
       <c r="L227" t="n">
-        <v>2.599999999999988</v>
+        <v>0</v>
       </c>
       <c r="M227" t="n">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="N227" t="n">
-        <v>74.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="O227" t="n">
         <v>0</v>
@@ -68690,25 +68690,25 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>224.9662551440329</v>
+        <v>646.0043010752686</v>
       </c>
       <c r="F228" t="n">
-        <v>22.47041609510748</v>
+        <v>223.2179211469536</v>
       </c>
       <c r="G228" t="n">
-        <v>763.6648462269666</v>
+        <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>277.1770010524116</v>
+        <v>363.6543209876544</v>
       </c>
       <c r="I228" t="n">
-        <v>0</v>
+        <v>221.5939643347051</v>
       </c>
       <c r="J228" t="n">
-        <v>0</v>
+        <v>127.5110137616713</v>
       </c>
       <c r="K228" t="n">
         <v>0</v>
@@ -68717,13 +68717,13 @@
         <v>0</v>
       </c>
       <c r="M228" t="n">
-        <v>0</v>
+        <v>307.6</v>
       </c>
       <c r="N228" t="n">
-        <v>220.0666666666665</v>
+        <v>459.8</v>
       </c>
       <c r="O228" t="n">
-        <v>180.1037037037037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -68735,37 +68735,37 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>14.8</v>
+        <v>0</v>
       </c>
       <c r="E229" t="n">
-        <v>3.25185185185186</v>
+        <v>23.82716049382718</v>
       </c>
       <c r="F229" t="n">
-        <v>13.87481481481482</v>
+        <v>0</v>
       </c>
       <c r="G229" t="n">
-        <v>0</v>
+        <v>19.1428745618046</v>
       </c>
       <c r="H229" t="n">
-        <v>37.77777777777778</v>
+        <v>33.4571254381954</v>
       </c>
       <c r="I229" t="n">
-        <v>6.91358024691358</v>
+        <v>0</v>
       </c>
       <c r="J229" t="n">
-        <v>7.898491083676269</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="K229" t="n">
-        <v>44.15015089163238</v>
+        <v>12.93333333333333</v>
       </c>
       <c r="L229" t="n">
-        <v>11.85999999999993</v>
+        <v>0</v>
       </c>
       <c r="M229" t="n">
-        <v>0</v>
+        <v>10.6</v>
       </c>
       <c r="N229" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="O229" t="n">
         <v>0</v>
@@ -69013,19 +69013,19 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>39.92514691188672</v>
+        <v>711.5999999999999</v>
       </c>
       <c r="E235" t="n">
-        <v>146.8972058986793</v>
+        <v>142.4</v>
       </c>
       <c r="F235" t="n">
-        <v>309.8102794101321</v>
+        <v>0</v>
       </c>
       <c r="G235" t="n">
-        <v>69.68888888888881</v>
+        <v>0</v>
       </c>
       <c r="H235" t="n">
-        <v>57.81111111111113</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -69037,16 +69037,16 @@
         <v>0</v>
       </c>
       <c r="L235" t="n">
-        <v>31.48888888888889</v>
+        <v>0</v>
       </c>
       <c r="M235" t="n">
-        <v>55.16790123456789</v>
+        <v>0</v>
       </c>
       <c r="N235" t="n">
-        <v>7.936899862825726</v>
+        <v>0</v>
       </c>
       <c r="O235" t="n">
-        <v>168.6736777930194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -69058,40 +69058,40 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>0</v>
+        <v>165.7777777777778</v>
       </c>
       <c r="E236" t="n">
-        <v>184.2337448559672</v>
+        <v>0</v>
       </c>
       <c r="F236" t="n">
-        <v>514.3295839048926</v>
+        <v>0</v>
       </c>
       <c r="G236" t="n">
-        <v>103.7351537730335</v>
+        <v>0</v>
       </c>
       <c r="H236" t="n">
-        <v>393.3184236859867</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
-        <v>402.9140641365882</v>
+        <v>251.9615912208505</v>
       </c>
       <c r="J236" t="n">
-        <v>523</v>
+        <v>0</v>
       </c>
       <c r="K236" t="n">
-        <v>687.8</v>
+        <v>0</v>
       </c>
       <c r="L236" t="n">
-        <v>542.3939968001217</v>
+        <v>1168.853223593965</v>
       </c>
       <c r="M236" t="n">
-        <v>307.6</v>
+        <v>0</v>
       </c>
       <c r="N236" t="n">
-        <v>74.93333333333338</v>
+        <v>0</v>
       </c>
       <c r="O236" t="n">
-        <v>345.8962962962964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -69103,37 +69103,37 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>0</v>
+        <v>16.59999999999999</v>
       </c>
       <c r="E237" t="n">
-        <v>36.34814814814813</v>
+        <v>0</v>
       </c>
       <c r="F237" t="n">
-        <v>43.12518518518519</v>
+        <v>72.77283950617282</v>
       </c>
       <c r="G237" t="n">
-        <v>63.73333333333334</v>
+        <v>51.2571254381954</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
       </c>
       <c r="I237" t="n">
-        <v>14.17530864197531</v>
+        <v>51.74287456180461</v>
       </c>
       <c r="J237" t="n">
-        <v>10.55135802469135</v>
+        <v>0</v>
       </c>
       <c r="K237" t="n">
         <v>0</v>
       </c>
       <c r="L237" t="n">
-        <v>11.94000000000007</v>
+        <v>64.8</v>
       </c>
       <c r="M237" t="n">
-        <v>10.6</v>
+        <v>0</v>
       </c>
       <c r="N237" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="O237" t="n">
         <v>0</v>
@@ -69158,13 +69158,13 @@
         <v>0</v>
       </c>
       <c r="F238" t="n">
-        <v>265.1999999999998</v>
+        <v>0</v>
       </c>
       <c r="G238" t="n">
-        <v>986.6000000000004</v>
+        <v>1212.388089330025</v>
       </c>
       <c r="H238" t="n">
-        <v>626.3230769230768</v>
+        <v>341.977336641854</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -69176,7 +69176,7 @@
         <v>0</v>
       </c>
       <c r="L238" t="n">
-        <v>833.2000000000007</v>
+        <v>425.9399007444188</v>
       </c>
       <c r="M238" t="n">
         <v>0</v>
@@ -69197,40 +69197,40 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>173.4748530881133</v>
+        <v>274.8</v>
       </c>
       <c r="E239" t="n">
-        <v>138.2925146911887</v>
+        <v>0</v>
       </c>
       <c r="F239" t="n">
-        <v>0</v>
+        <v>472.8000000000001</v>
       </c>
       <c r="G239" t="n">
-        <v>195.7111111111111</v>
+        <v>265.3999999999999</v>
       </c>
       <c r="H239" t="n">
-        <v>316.9888888888888</v>
+        <v>442.2</v>
       </c>
       <c r="I239" t="n">
-        <v>196.4</v>
+        <v>218.4</v>
       </c>
       <c r="J239" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K239" t="n">
-        <v>135.6</v>
+        <v>0</v>
       </c>
       <c r="L239" t="n">
-        <v>124.7111111111111</v>
+        <v>374.4</v>
       </c>
       <c r="M239" t="n">
-        <v>213.0320987654321</v>
+        <v>0</v>
       </c>
       <c r="N239" t="n">
-        <v>253.0631001371742</v>
+        <v>0</v>
       </c>
       <c r="O239" t="n">
-        <v>187.3263222069806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -69242,7 +69242,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>381.4</v>
+        <v>615.8179211469537</v>
       </c>
       <c r="E240" t="n">
         <v>0</v>
@@ -69254,10 +69254,10 @@
         <v>0</v>
       </c>
       <c r="H240" t="n">
-        <v>130.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I240" t="n">
-        <v>364.5273301334551</v>
+        <v>0</v>
       </c>
       <c r="J240" t="n">
         <v>0</v>
@@ -69266,13 +69266,13 @@
         <v>0</v>
       </c>
       <c r="L240" t="n">
-        <v>84.60600319987827</v>
+        <v>19.18207885304619</v>
       </c>
       <c r="M240" t="n">
         <v>0</v>
       </c>
       <c r="N240" t="n">
-        <v>164.8</v>
+        <v>0</v>
       </c>
       <c r="O240" t="n">
         <v>0</v>
@@ -69287,7 +69287,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E241" t="n">
         <v>0</v>
@@ -69296,13 +69296,13 @@
         <v>0</v>
       </c>
       <c r="G241" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>15.62222222222223</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
-        <v>10.71111111111111</v>
+        <v>0</v>
       </c>
       <c r="J241" t="n">
         <v>0</v>
@@ -72710,7 +72710,7 @@
         <v>0</v>
       </c>
       <c r="G315" t="n">
-        <v>75.60000000000001</v>
+        <v>0</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -72725,7 +72725,7 @@
         <v>0</v>
       </c>
       <c r="L315" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="M315" t="n">
         <v>0</v>
@@ -72764,10 +72764,10 @@
         <v>0</v>
       </c>
       <c r="J316" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="K316" t="n">
-        <v>31.27459678621949</v>
+        <v>0</v>
       </c>
       <c r="L316" t="n">
         <v>0</v>
@@ -72791,37 +72791,37 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>24.66666666666667</v>
+        <v>5.355555555555564</v>
       </c>
       <c r="E317" t="n">
-        <v>2.022222222222233</v>
+        <v>38.67160493827161</v>
       </c>
       <c r="F317" t="n">
-        <v>39.57777777777777</v>
+        <v>2.485871056241436</v>
       </c>
       <c r="G317" t="n">
-        <v>21</v>
+        <v>41.71412894375857</v>
       </c>
       <c r="H317" t="n">
-        <v>18.4</v>
+        <v>2.999999999999998</v>
       </c>
       <c r="I317" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="J317" t="n">
-        <v>8.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="K317" t="n">
-        <v>14</v>
+        <v>22.4</v>
       </c>
       <c r="L317" t="n">
-        <v>11.75555555555555</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="M317" t="n">
         <v>0</v>
       </c>
       <c r="N317" t="n">
-        <v>12.10444444444438</v>
+        <v>0</v>
       </c>
       <c r="O317" t="n">
         <v>0</v>
@@ -72840,16 +72840,16 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>0</v>
+        <v>438.2000000000003</v>
       </c>
       <c r="E318" t="n">
-        <v>2067.258837635494</v>
+        <v>704.4641466776944</v>
       </c>
       <c r="F318" t="n">
-        <v>160.2387131099178</v>
+        <v>955.5127763992276</v>
       </c>
       <c r="G318" t="n">
-        <v>490.0382099670048</v>
+        <v>0</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -72888,10 +72888,10 @@
         <v>0</v>
       </c>
       <c r="E319" t="n">
-        <v>4.800000000000011</v>
+        <v>0</v>
       </c>
       <c r="F319" t="n">
-        <v>28.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="G319" t="n">
         <v>0</v>
@@ -72987,10 +72987,10 @@
         <v>0</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="I321" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="J321" t="n">
         <v>0</v>
@@ -72999,10 +72999,10 @@
         <v>0</v>
       </c>
       <c r="L321" t="n">
-        <v>4.444444444444445</v>
+        <v>14</v>
       </c>
       <c r="M321" t="n">
-        <v>9.555555555555555</v>
+        <v>0</v>
       </c>
       <c r="N321" t="n">
         <v>0</v>
@@ -74684,10 +74684,10 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>952.4632056557982</v>
+        <v>0</v>
       </c>
       <c r="E358" t="n">
-        <v>0</v>
+        <v>758.8469644334167</v>
       </c>
       <c r="F358" t="n">
         <v>0</v>
@@ -74702,22 +74702,22 @@
         <v>1037.2</v>
       </c>
       <c r="J358" t="n">
-        <v>731.8000000000002</v>
+        <v>802.9623655913965</v>
       </c>
       <c r="K358" t="n">
-        <v>910.4876923076914</v>
+        <v>1234.293990074441</v>
       </c>
       <c r="L358" t="n">
         <v>0</v>
       </c>
       <c r="M358" t="n">
-        <v>1482.312307692308</v>
+        <v>1158.506009925558</v>
       </c>
       <c r="N358" t="n">
-        <v>247.5196581196579</v>
+        <v>652.5555555555554</v>
       </c>
       <c r="O358" t="n">
-        <v>751.8311490978158</v>
+        <v>1174.164444444441</v>
       </c>
     </row>
     <row r="359">
@@ -76896,13 +76896,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>265.1999999999998</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1105.630769230769</v>
+        <v>1208.859222497932</v>
       </c>
       <c r="H2" t="n">
         <v>1500</v>
@@ -76920,10 +76920,10 @@
         <v>478.1999999999998</v>
       </c>
       <c r="M2" t="n">
-        <v>1269.544919278252</v>
+        <v>1089.5</v>
       </c>
       <c r="N2" t="n">
-        <v>58.82943547536229</v>
+        <v>61.47386545354379</v>
       </c>
     </row>
     <row r="3">
@@ -76937,7 +76937,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>15.01027941013206</v>
+        <v>157.8</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -76952,22 +76952,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>215.6</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>71.19999999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>406.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>762.5999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -76978,16 +76978,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>236.8043010752685</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>137.9854241338112</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>357.320987654321</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -76996,10 +76996,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>395.4889862383287</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>769.9367759635379</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -77011,7 +77011,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>532.0000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -77025,7 +77025,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>15.77283950617282</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -77034,16 +77034,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>19.94287456180461</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>10.55015089163238</v>
+        <v>20.33333333333334</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -77052,10 +77052,10 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>7.799999999999994</v>
       </c>
       <c r="N5" t="n">
-        <v>18</v>
+        <v>25.79999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -77076,34 +77076,34 @@
         <v>271.5999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>500.3999999999996</v>
+        <v>362.4692307692308</v>
       </c>
       <c r="F6" t="n">
-        <v>635.2837103052595</v>
+        <v>383.6076923076923</v>
       </c>
       <c r="G6" t="n">
-        <v>587.4728505087661</v>
+        <v>321.2692307692308</v>
       </c>
       <c r="H6" t="n">
-        <v>412.4728505087662</v>
+        <v>146.2692307692309</v>
       </c>
       <c r="I6" t="n">
-        <v>769.9528505087656</v>
+        <v>104.8692307692309</v>
       </c>
       <c r="J6" t="n">
-        <v>750.2728505087654</v>
+        <v>40.86923076923074</v>
       </c>
       <c r="K6" t="n">
-        <v>419.0928505087657</v>
+        <v>139.1069230769231</v>
       </c>
       <c r="L6" t="n">
-        <v>402.0728505087656</v>
+        <v>169.7999999999998</v>
       </c>
       <c r="M6" t="n">
-        <v>416.7602389228215</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>177.8458837635496</v>
+        <v>155.0315384615386</v>
       </c>
     </row>
     <row r="7">
@@ -77114,22 +77114,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.759999999999997</v>
+        <v>112.4</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>109.6</v>
       </c>
       <c r="E7" t="n">
-        <v>20.57999999999999</v>
+        <v>112</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>7.060000000000036</v>
+        <v>35.8</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2.199999999999996</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -77138,16 +77138,16 @@
         <v>9.600000000000009</v>
       </c>
       <c r="K7" t="n">
-        <v>13.34</v>
+        <v>11.00000000000001</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>174.7</v>
       </c>
       <c r="M7" t="n">
-        <v>24.15999999999999</v>
+        <v>151.6</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
@@ -77158,40 +77158,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23.51037037037037</v>
+        <v>239.2184786937472</v>
       </c>
       <c r="D8" t="n">
-        <v>61.67999999999995</v>
+        <v>545.7179291119073</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>442.0782078853046</v>
       </c>
       <c r="F8" t="n">
-        <v>357.1454032137808</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>355.6822998947589</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>147.6</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>198.9804000177</v>
       </c>
       <c r="J8" t="n">
-        <v>164.0128628924024</v>
+        <v>267.6222222222222</v>
       </c>
       <c r="K8" t="n">
-        <v>175.4854032137805</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>233.6485403213781</v>
+        <v>15.90109119872545</v>
       </c>
       <c r="M8" t="n">
-        <v>82.69999999999999</v>
+        <v>129.0384786937473</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>328.2184786937472</v>
       </c>
     </row>
     <row r="9">
@@ -77202,19 +77202,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17.04599999999999</v>
+        <v>3.275555555555542</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>3.217283950617283</v>
       </c>
       <c r="E9" t="n">
-        <v>7.212518518518518</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>8.628587105624144</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>6.654287456180461</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -77223,16 +77223,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>36.52498491083677</v>
+        <v>8.506666666666668</v>
       </c>
       <c r="K9" t="n">
-        <v>41.81400000000001</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>20.2</v>
+        <v>5.819999999999997</v>
       </c>
       <c r="M9" t="n">
-        <v>6.6</v>
+        <v>5.48</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -77250,13 +77250,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1002.058837635494</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>360.7358533223054</v>
       </c>
       <c r="E10" t="n">
-        <v>628.961286890082</v>
+        <v>161.1230769230774</v>
       </c>
       <c r="F10" t="n">
         <v>330.7230769230773</v>
@@ -77268,22 +77268,22 @@
         <v>229</v>
       </c>
       <c r="I10" t="n">
-        <v>159.2000000000003</v>
+        <v>531.2376344086034</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>372.0376344086031</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>302.1669644334162</v>
       </c>
       <c r="L10" t="n">
-        <v>367.3999999999996</v>
+        <v>669.5669644334158</v>
       </c>
       <c r="M10" t="n">
-        <v>377.1999999999998</v>
+        <v>679.366964433416</v>
       </c>
       <c r="N10" t="n">
-        <v>563.8588376354938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -77297,25 +77297,25 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>4.800000000000011</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>33.40000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>3.200000000000003</v>
+        <v>112.2</v>
       </c>
       <c r="G11" t="n">
-        <v>18.00000000000001</v>
+        <v>127</v>
       </c>
       <c r="H11" t="n">
-        <v>72.40000000000002</v>
+        <v>181.4</v>
       </c>
       <c r="I11" t="n">
-        <v>103.6</v>
+        <v>212.6</v>
       </c>
       <c r="J11" t="n">
-        <v>104.8</v>
+        <v>213.8</v>
       </c>
       <c r="K11" t="n">
         <v>96.00000000000001</v>
@@ -77338,13 +77338,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>418.8854032137806</v>
+        <v>864.2722421346077</v>
       </c>
       <c r="D12" t="n">
-        <v>447.4854032137806</v>
+        <v>677.0911190760653</v>
       </c>
       <c r="E12" t="n">
-        <v>257.1363835077344</v>
+        <v>291.437037037037</v>
       </c>
       <c r="F12" t="n">
         <v>53.41481481481475</v>
@@ -77356,22 +77356,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>377.1777777777777</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>619.5777777777778</v>
       </c>
       <c r="L12" t="n">
-        <v>4.08540321378041</v>
+        <v>686.3144563918759</v>
       </c>
       <c r="M12" t="n">
-        <v>153.4854032137804</v>
+        <v>598.8722421346079</v>
       </c>
       <c r="N12" t="n">
-        <v>371.6854032137806</v>
+        <v>817.0722421346077</v>
       </c>
     </row>
     <row r="13">
@@ -77382,13 +77382,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>20.27160493827161</v>
       </c>
       <c r="D13" t="n">
-        <v>16.37777777777777</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>20.71412894375857</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -77400,7 +77400,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>8.399999999999999</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -77409,13 +77409,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>11.64444444444444</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>27.74000000000006</v>
+        <v>28.2</v>
       </c>
       <c r="N13" t="n">
-        <v>42.34000000000006</v>
+        <v>42.8</v>
       </c>
     </row>
     <row r="14">
@@ -77430,16 +77430,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>782.5999999999983</v>
+        <v>1541.446964433418</v>
       </c>
       <c r="D14" t="n">
-        <v>899.1999999999978</v>
+        <v>899.2000000000004</v>
       </c>
       <c r="E14" t="n">
-        <v>604.5999999999974</v>
+        <v>604.6</v>
       </c>
       <c r="F14" t="n">
-        <v>212.3999999999976</v>
+        <v>212.4000000000002</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -77451,10 +77451,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>466.9123076923082</v>
+        <v>143.1060099255586</v>
       </c>
       <c r="K14" t="n">
-        <v>1248.712307692309</v>
+        <v>924.9060099255589</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -77463,7 +77463,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>718.2632056557964</v>
+        <v>698.8908023159647</v>
       </c>
     </row>
     <row r="15">
@@ -77474,37 +77474,37 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>587.64</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>650.76</v>
       </c>
       <c r="E15" t="n">
-        <v>71.31897205898683</v>
+        <v>442.8</v>
       </c>
       <c r="F15" t="n">
-        <v>76.85999999999999</v>
+        <v>286.6</v>
       </c>
       <c r="G15" t="n">
-        <v>62.01888888888888</v>
+        <v>205.2</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>137.4</v>
       </c>
       <c r="I15" t="n">
-        <v>47.80000000000001</v>
+        <v>185.2</v>
       </c>
       <c r="J15" t="n">
-        <v>87.40000000000001</v>
+        <v>224.8</v>
       </c>
       <c r="K15" t="n">
-        <v>132.5400000000001</v>
+        <v>339.7</v>
       </c>
       <c r="L15" t="n">
-        <v>59.94000000000007</v>
+        <v>225.2</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>152.6</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -77518,37 +77518,37 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>53.3896296296296</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>96.85368379131796</v>
       </c>
       <c r="E16" t="n">
-        <v>275.9683661767436</v>
+        <v>533.9147749900434</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>977.1518120270805</v>
       </c>
       <c r="G16" t="n">
-        <v>77.04549990847204</v>
+        <v>1399.55181202708</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1147.317244125846</v>
       </c>
       <c r="I16" t="n">
-        <v>232.6914064136588</v>
+        <v>702.7167485286956</v>
       </c>
       <c r="J16" t="n">
-        <v>61.65854352125632</v>
+        <v>163.709341121288</v>
       </c>
       <c r="K16" t="n">
-        <v>277.7206003199877</v>
+        <v>811.4276206911809</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>789.0218239745118</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>601.5829549980086</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -77568,34 +77568,34 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>6.669703703703703</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>15.83333333333334</v>
+        <v>2.797125438195401</v>
       </c>
       <c r="H17" t="n">
-        <v>18.27111111111112</v>
+        <v>27.06571254381954</v>
       </c>
       <c r="I17" t="n">
-        <v>25.50486419753087</v>
+        <v>19.84</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>6.126000000000062</v>
+        <v>45.94</v>
       </c>
       <c r="L17" t="n">
-        <v>3.035555555555625</v>
+        <v>37.64</v>
       </c>
       <c r="M17" t="n">
-        <v>4.889555555555562</v>
+        <v>10.44</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2.440000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -77613,37 +77613,37 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>594.9792744375246</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>107.0772252550314</v>
       </c>
       <c r="F18" t="n">
-        <v>381.4454097725303</v>
+        <v>405.7104549214217</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>169.7123076923076</v>
+        <v>141.2777336641853</v>
       </c>
       <c r="I18" t="n">
-        <v>63.05230769230786</v>
+        <v>98.66386269644227</v>
       </c>
       <c r="J18" t="n">
-        <v>127.8712307692301</v>
+        <v>462.0246903225789</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>502.6010769230775</v>
+        <v>170.4493990074443</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>420.6035555555555</v>
       </c>
     </row>
     <row r="19">
@@ -77654,40 +77654,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>170.42</v>
+        <v>164.92</v>
       </c>
       <c r="D19" t="n">
-        <v>124.1507485308811</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>261.3200000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>368.46</v>
       </c>
       <c r="G19" t="n">
-        <v>50.46111111111108</v>
+        <v>538.58</v>
       </c>
       <c r="H19" t="n">
-        <v>117.52</v>
+        <v>637.96</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3599999999999852</v>
+        <v>451</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>320.6</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>531.76</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="M19" t="n">
-        <v>47.05999999999995</v>
+        <v>163</v>
       </c>
       <c r="N19" t="n">
-        <v>77.95999999999981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -77698,37 +77698,37 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>215.46</v>
+        <v>424.0361290322584</v>
       </c>
       <c r="D20" t="n">
-        <v>53</v>
+        <v>512.0179211469538</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>525.0179211469538</v>
       </c>
       <c r="F20" t="n">
-        <v>16.2</v>
+        <v>562.2179211469538</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>453.4179211469538</v>
       </c>
       <c r="H20" t="n">
-        <v>233.9412637867762</v>
+        <v>346.2179211469538</v>
       </c>
       <c r="I20" t="n">
-        <v>149.1939968001217</v>
+        <v>225.0179211469538</v>
       </c>
       <c r="J20" t="n">
-        <v>49.19399680012174</v>
+        <v>181.0179211469538</v>
       </c>
       <c r="K20" t="n">
-        <v>55.73939968001218</v>
+        <v>128.6817921146954</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>168.4</v>
       </c>
       <c r="M20" t="n">
-        <v>59.71999999999998</v>
+        <v>79.8</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -77742,22 +77742,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>15.5</v>
+        <v>20.9</v>
       </c>
       <c r="D21" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>11.72666666666667</v>
+        <v>10.86</v>
       </c>
       <c r="H21" t="n">
-        <v>16.92888888888889</v>
+        <v>16.84</v>
       </c>
       <c r="I21" t="n">
         <v>8</v>
@@ -77766,10 +77766,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="L21" t="n">
-        <v>5.044444444444444</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
@@ -77900,16 +77900,16 @@
         <v>2552</v>
       </c>
       <c r="C3" t="n">
-        <v>3644</v>
+        <v>3417</v>
       </c>
       <c r="D3" t="n">
-        <v>3330</v>
+        <v>2693.23076923077</v>
       </c>
       <c r="E3" t="n">
-        <v>2899.945701017532</v>
+        <v>2674.934656741109</v>
       </c>
       <c r="F3" t="n">
-        <v>3386</v>
+        <v>2844.857733664186</v>
       </c>
       <c r="G3" t="n">
         <v>2761</v>
@@ -77918,13 +77918,13 @@
         <v>3061</v>
       </c>
       <c r="I3" t="n">
-        <v>2719</v>
+        <v>2663</v>
       </c>
       <c r="J3" t="n">
         <v>2709</v>
       </c>
       <c r="K3" t="n">
-        <v>2622</v>
+        <v>2520</v>
       </c>
       <c r="L3" t="n">
         <v>2633</v>
@@ -77943,37 +77943,37 @@
         <v>10608</v>
       </c>
       <c r="C4" t="n">
-        <v>12809</v>
+        <v>12282.52409398646</v>
       </c>
       <c r="D4" t="n">
-        <v>13867.75163382326</v>
+        <v>12588.56967803204</v>
       </c>
       <c r="E4" t="n">
-        <v>13721.9086639805</v>
+        <v>12632.89761970407</v>
       </c>
       <c r="F4" t="n">
-        <v>13694.71459678622</v>
+        <v>12443.85773366419</v>
       </c>
       <c r="G4" t="n">
         <v>10794</v>
       </c>
       <c r="H4" t="n">
-        <v>12743.4</v>
+        <v>12601.07526881721</v>
       </c>
       <c r="I4" t="n">
-        <v>12383</v>
+        <v>11813.96853843091</v>
       </c>
       <c r="J4" t="n">
         <v>9777</v>
       </c>
       <c r="K4" t="n">
-        <v>12669</v>
+        <v>12032.89446435683</v>
       </c>
       <c r="L4" t="n">
-        <v>14169.96068376068</v>
+        <v>13359.88888888889</v>
       </c>
       <c r="M4" t="n">
-        <v>12622.41129049278</v>
+        <v>11293.75799283155</v>
       </c>
     </row>
     <row r="5">
@@ -77983,40 +77983,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10401.47333333333</v>
+        <v>10400.97283950617</v>
       </c>
       <c r="C5" t="n">
-        <v>10850</v>
+        <v>10683.15929908403</v>
       </c>
       <c r="D5" t="n">
-        <v>13429</v>
+        <v>12346.56967803204</v>
       </c>
       <c r="E5" t="n">
-        <v>13766.94570101753</v>
+        <v>12677.93465674111</v>
       </c>
       <c r="F5" t="n">
-        <v>13913.56075063237</v>
+        <v>12662.70388751034</v>
       </c>
       <c r="G5" t="n">
         <v>10113</v>
       </c>
       <c r="H5" t="n">
-        <v>12668.8</v>
+        <v>11782.4</v>
       </c>
       <c r="I5" t="n">
-        <v>13152.12540321378</v>
+        <v>12310.19076065313</v>
       </c>
       <c r="J5" t="n">
-        <v>10227</v>
+        <v>10124.34133995037</v>
       </c>
       <c r="K5" t="n">
-        <v>10990.91459678622</v>
+        <v>10550.2</v>
       </c>
       <c r="L5" t="n">
-        <v>14361.96068376068</v>
+        <v>13551.88888888889</v>
       </c>
       <c r="M5" t="n">
-        <v>11626.49361522179</v>
+        <v>12029.89192169838</v>
       </c>
     </row>
     <row r="6">
@@ -78032,13 +78032,13 @@
         <v>9639</v>
       </c>
       <c r="D6" t="n">
-        <v>12521</v>
+        <v>12228.33890880128</v>
       </c>
       <c r="E6" t="n">
-        <v>13504</v>
+        <v>12487.62696443342</v>
       </c>
       <c r="F6" t="n">
-        <v>13965.44963952126</v>
+        <v>12714.59277639923</v>
       </c>
       <c r="G6" t="n">
         <v>10021</v>
@@ -78047,7 +78047,7 @@
         <v>11690.4</v>
       </c>
       <c r="I6" t="n">
-        <v>12738</v>
+        <v>12215.74631620868</v>
       </c>
       <c r="J6" t="n">
         <v>10641</v>
@@ -78056,10 +78056,10 @@
         <v>9541</v>
       </c>
       <c r="L6" t="n">
-        <v>14314.98870950723</v>
+        <v>13914.88888888889</v>
       </c>
       <c r="M6" t="n">
-        <v>11604.41129049278</v>
+        <v>11551.52269092915</v>
       </c>
     </row>
     <row r="7">
@@ -78112,40 +78112,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9369.799999999999</v>
+        <v>11197.99569892473</v>
       </c>
       <c r="C8" t="n">
-        <v>11282.17944117973</v>
+        <v>11217.6314615691</v>
       </c>
       <c r="D8" t="n">
-        <v>11398.22055882027</v>
+        <v>10855.59076065313</v>
       </c>
       <c r="E8" t="n">
-        <v>13110.8</v>
+        <v>12694.97617866005</v>
       </c>
       <c r="F8" t="n">
-        <v>11569.60824525122</v>
+        <v>10543.46611970956</v>
       </c>
       <c r="G8" t="n">
-        <v>10810.04139427004</v>
+        <v>10536.09843011736</v>
       </c>
       <c r="H8" t="n">
-        <v>12951.44984910837</v>
+        <v>12386.17768042834</v>
       </c>
       <c r="I8" t="n">
-        <v>13390.15015089163</v>
+        <v>12399.93333333333</v>
       </c>
       <c r="J8" t="n">
-        <v>8479.800000000003</v>
+        <v>9513.035302447013</v>
       </c>
       <c r="K8" t="n">
-        <v>12024.6</v>
+        <v>11882.2</v>
       </c>
       <c r="L8" t="n">
-        <v>12083.6</v>
+        <v>11405</v>
       </c>
       <c r="M8" t="n">
-        <v>14251</v>
+        <v>12554.01157981803</v>
       </c>
     </row>
     <row r="9">
@@ -78155,40 +78155,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9517.200000000001</v>
+        <v>11485.99569892473</v>
       </c>
       <c r="C9" t="n">
-        <v>11728.96133418385</v>
+        <v>11222.8</v>
       </c>
       <c r="D9" t="n">
-        <v>11771.47532791034</v>
+        <v>11082.37283950617</v>
       </c>
       <c r="E9" t="n">
-        <v>12952.13515377303</v>
+        <v>13280.83330409824</v>
       </c>
       <c r="F9" t="n">
-        <v>11862.85346642103</v>
+        <v>10889.35467328371</v>
       </c>
       <c r="G9" t="n">
-        <v>11330.12781402313</v>
+        <v>10885.50446578265</v>
       </c>
       <c r="H9" t="n">
-        <v>13266.55135802469</v>
+        <v>12363.33890880128</v>
       </c>
       <c r="I9" t="n">
-        <v>13719</v>
+        <v>12609.37594583831</v>
       </c>
       <c r="J9" t="n">
-        <v>8912.740000000003</v>
+        <v>9148.515103935848</v>
       </c>
       <c r="K9" t="n">
-        <v>13007.6</v>
+        <v>12045.33890880127</v>
       </c>
       <c r="L9" t="n">
-        <v>12543.73333333333</v>
+        <v>11686.04261250498</v>
       </c>
       <c r="M9" t="n">
-        <v>14888.8962962963</v>
+        <v>12533.78081058726</v>
       </c>
     </row>
     <row r="10">
@@ -78198,40 +78198,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8932.866666666667</v>
+        <v>11758.75125448029</v>
       </c>
       <c r="C10" t="n">
-        <v>14893.10123167706</v>
+        <v>11688.39989829366</v>
       </c>
       <c r="D10" t="n">
-        <v>11806.73053190796</v>
+        <v>12613.88426336087</v>
       </c>
       <c r="E10" t="n">
-        <v>13684.41157370704</v>
+        <v>12902.547433042</v>
       </c>
       <c r="F10" t="n">
-        <v>12623.25346642103</v>
+        <v>11649.75467328371</v>
       </c>
       <c r="G10" t="n">
-        <v>11458.72781402313</v>
+        <v>11014.10446578266</v>
       </c>
       <c r="H10" t="n">
-        <v>13365.95135802469</v>
+        <v>12381.33890880128</v>
       </c>
       <c r="I10" t="n">
-        <v>13068.27459678622</v>
+        <v>11935.77594583831</v>
       </c>
       <c r="J10" t="n">
-        <v>9175.940000000002</v>
+        <v>9629.715103935849</v>
       </c>
       <c r="K10" t="n">
-        <v>13095.15555555556</v>
+        <v>12123.33890880127</v>
       </c>
       <c r="L10" t="n">
-        <v>12889.83777777778</v>
+        <v>12020.04261250498</v>
       </c>
       <c r="M10" t="n">
-        <v>14865.8962962963</v>
+        <v>12510.78081058726</v>
       </c>
     </row>
     <row r="11">
@@ -78241,40 +78241,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2920.276117487823</v>
+        <v>2334.817921146954</v>
       </c>
       <c r="C11" t="n">
-        <v>4802.702704653365</v>
+        <v>3308.622222222222</v>
       </c>
       <c r="D11" t="n">
-        <v>1594.077426219835</v>
+        <v>3542.625552798455</v>
       </c>
       <c r="E11" t="n">
-        <v>3847.365308822899</v>
+        <v>3451.576178660049</v>
       </c>
       <c r="F11" t="n">
-        <v>2626.91282051282</v>
+        <v>2177.754673283708</v>
       </c>
       <c r="G11" t="n">
-        <v>3633.438441244566</v>
+        <v>3313.8</v>
       </c>
       <c r="H11" t="n">
-        <v>2386.6</v>
+        <v>2368.924731182793</v>
       </c>
       <c r="I11" t="n">
-        <v>2741.175384615383</v>
+        <v>3117.587980148882</v>
       </c>
       <c r="J11" t="n">
-        <v>2315.872669866546</v>
+        <v>1944.861880341884</v>
       </c>
       <c r="K11" t="n">
-        <v>3719.244368471036</v>
+        <v>2636.012019851117</v>
       </c>
       <c r="L11" t="n">
-        <v>1601.965516513664</v>
+        <v>1741.111111111111</v>
       </c>
       <c r="M11" t="n">
-        <v>2454.314942609593</v>
+        <v>2918.328888888883</v>
       </c>
     </row>
   </sheetData>
@@ -78365,13 +78365,13 @@
         <v>4825.2</v>
       </c>
       <c r="F2" t="n">
-        <v>5513.6</v>
+        <v>5474.188089330025</v>
       </c>
       <c r="G2" t="n">
-        <v>5892.953846153846</v>
+        <v>5711.836559139786</v>
       </c>
       <c r="H2" t="n">
-        <v>4906.369230769231</v>
+        <v>4803.140777502068</v>
       </c>
       <c r="I2" t="n">
         <v>4317.400000000001</v>
@@ -78450,25 +78450,25 @@
         <v>614.2</v>
       </c>
       <c r="E4" t="n">
-        <v>790.8000000000001</v>
+        <v>615.2033452807648</v>
       </c>
       <c r="F4" t="n">
-        <v>1121.4</v>
+        <v>473.3355635205098</v>
       </c>
       <c r="G4" t="n">
-        <v>1034.162091405065</v>
+        <v>239.3333333333334</v>
       </c>
       <c r="H4" t="n">
-        <v>1028.441394270043</v>
+        <v>734.5555555555555</v>
       </c>
       <c r="I4" t="n">
         <v>1027</v>
       </c>
       <c r="J4" t="n">
-        <v>1086.8</v>
+        <v>773.4477897252093</v>
       </c>
       <c r="K4" t="n">
-        <v>908</v>
+        <v>699.0985264834728</v>
       </c>
       <c r="L4" t="n">
         <v>780.6</v>
@@ -78542,13 +78542,13 @@
         <v>1110.6</v>
       </c>
       <c r="E6" t="n">
-        <v>1242.8</v>
+        <v>1104.869230769231</v>
       </c>
       <c r="F6" t="n">
-        <v>1216.88371030526</v>
+        <v>1103.138461538462</v>
       </c>
       <c r="G6" t="n">
-        <v>958.1891402035066</v>
+        <v>943.6615384615385</v>
       </c>
       <c r="H6" t="n">
         <v>923.0000000000001</v>
@@ -78627,13 +78627,13 @@
         <v>299</v>
       </c>
       <c r="D8" t="n">
-        <v>311.2</v>
+        <v>211.0955794504183</v>
       </c>
       <c r="E8" t="n">
-        <v>386.6</v>
+        <v>121.8637196336122</v>
       </c>
       <c r="F8" t="n">
-        <v>217.6</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="G8" t="n">
         <v>195.6</v>
@@ -78645,16 +78645,16 @@
         <v>394.4</v>
       </c>
       <c r="J8" t="n">
-        <v>416.2</v>
+        <v>358.2666666666667</v>
       </c>
       <c r="K8" t="n">
-        <v>353</v>
+        <v>314.3777777777778</v>
       </c>
       <c r="L8" t="n">
-        <v>348.8</v>
+        <v>322.4</v>
       </c>
       <c r="M8" t="n">
-        <v>386.2</v>
+        <v>368.6</v>
       </c>
       <c r="N8" t="n">
         <v>347.2</v>
@@ -78722,10 +78722,10 @@
         <v>3137.2</v>
       </c>
       <c r="E10" t="n">
-        <v>3059.2</v>
+        <v>3025.9</v>
       </c>
       <c r="F10" t="n">
-        <v>2748.8</v>
+        <v>2726.6</v>
       </c>
       <c r="G10" t="n">
         <v>2473.2</v>
@@ -78807,13 +78807,13 @@
         <v>382.2</v>
       </c>
       <c r="D12" t="n">
-        <v>375.6</v>
+        <v>159.8188769414575</v>
       </c>
       <c r="E12" t="n">
-        <v>244.6509802939539</v>
+        <v>49.3459179609717</v>
       </c>
       <c r="F12" t="n">
-        <v>214.2784313070803</v>
+        <v>179.9777777777778</v>
       </c>
       <c r="G12" t="n">
         <v>259.1851851851852</v>
@@ -78831,13 +78831,13 @@
         <v>549.4</v>
       </c>
       <c r="L12" t="n">
-        <v>693</v>
+        <v>337.7366786140981</v>
       </c>
       <c r="M12" t="n">
-        <v>577.4</v>
+        <v>340.5577857427321</v>
       </c>
       <c r="N12" t="n">
-        <v>516.2000000000002</v>
+        <v>516.1999999999998</v>
       </c>
     </row>
     <row r="13">
@@ -78896,7 +78896,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4523.8</v>
+        <v>4349.556162117453</v>
       </c>
       <c r="D14" t="n">
         <v>3996.599999999999</v>
@@ -78908,7 +78908,7 @@
         <v>4100.8</v>
       </c>
       <c r="G14" t="n">
-        <v>4257.600000000002</v>
+        <v>4257.599999999999</v>
       </c>
       <c r="H14" t="n">
         <v>4314.2</v>
@@ -78929,7 +78929,7 @@
         <v>5340</v>
       </c>
       <c r="N14" t="n">
-        <v>5791.8</v>
+        <v>5530.434243176179</v>
       </c>
     </row>
     <row r="15">
@@ -78964,7 +78964,7 @@
         <v>183.6</v>
       </c>
       <c r="K15" t="n">
-        <v>132.8000000000001</v>
+        <v>132.8</v>
       </c>
       <c r="L15" t="n">
         <v>123.6</v>
@@ -78984,7 +78984,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>643.8</v>
+        <v>475.8</v>
       </c>
       <c r="D16" t="n">
         <v>625.8</v>
@@ -79002,22 +79002,22 @@
         <v>629</v>
       </c>
       <c r="I16" t="n">
-        <v>635</v>
+        <v>509.2033452807648</v>
       </c>
       <c r="J16" t="n">
-        <v>568.2</v>
+        <v>393.9611310234968</v>
       </c>
       <c r="K16" t="n">
-        <v>505</v>
+        <v>444.7503783353247</v>
       </c>
       <c r="L16" t="n">
-        <v>698.2</v>
+        <v>633.6033452807646</v>
       </c>
       <c r="M16" t="n">
-        <v>849.8</v>
+        <v>760.5611310234967</v>
       </c>
       <c r="N16" t="n">
-        <v>812.1999999999999</v>
+        <v>529.4170450019914</v>
       </c>
     </row>
     <row r="17">
@@ -79164,7 +79164,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>43.2</v>
+        <v>40.8</v>
       </c>
       <c r="D20" t="n">
         <v>38.4</v>
@@ -79197,7 +79197,7 @@
         <v>64.39999999999999</v>
       </c>
       <c r="N20" t="n">
-        <v>62.8</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="21">
@@ -79330,7 +79330,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>69.9705645246388</v>
+        <v>67.32613454645731</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -79348,10 +79348,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>565.3799999999999</v>
+        <v>565.3799999999998</v>
       </c>
       <c r="J2" t="n">
-        <v>62.81999999999999</v>
+        <v>62.81999999999997</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -79360,10 +79360,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1891.344919278252</v>
+        <v>1711.3</v>
       </c>
       <c r="N2" t="n">
-        <v>839.8845161971105</v>
+        <v>796.0796553625603</v>
       </c>
     </row>
     <row r="3">
@@ -79510,7 +79510,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8.154116236450575</v>
+        <v>30.96846153846155</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -79528,22 +79528,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>398.8799999999994</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>44.31999999999994</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>48.42000000000017</v>
+        <v>477.8376923076922</v>
       </c>
       <c r="L6" t="n">
-        <v>5.380000000000019</v>
+        <v>53.09307692307686</v>
       </c>
       <c r="M6" t="n">
-        <v>184.4873884140558</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>93.88564484072805</v>
+        <v>278.716153846154</v>
       </c>
     </row>
     <row r="7">
@@ -79554,40 +79554,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9.359999999999999</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.18</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>60.66000000000003</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>26.53999999999996</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2.199999999999996</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.339999999999989</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2599999999999988</v>
+        <v>177.3</v>
       </c>
       <c r="M7" t="n">
-        <v>66.96000000000001</v>
+        <v>19.7</v>
       </c>
       <c r="N7" t="n">
-        <v>7.440000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -79598,40 +79598,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>112.5103703703704</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>212.9696296296296</v>
+        <v>581.4038709677418</v>
       </c>
       <c r="E8" t="n">
-        <v>42.72000000000003</v>
+        <v>265.4965591397851</v>
       </c>
       <c r="F8" t="n">
-        <v>689.5454032137807</v>
+        <v>22.32179211469536</v>
       </c>
       <c r="G8" t="n">
-        <v>325.8257855698671</v>
+        <v>327.2888888888889</v>
       </c>
       <c r="H8" t="n">
-        <v>27.71770010524116</v>
+        <v>235.8</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9193088189747</v>
       </c>
       <c r="J8" t="n">
-        <v>200.8128628924024</v>
+        <v>12.75110137616713</v>
       </c>
       <c r="K8" t="n">
-        <v>240.4725403213781</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>400.3631371075977</v>
+        <v>276.84</v>
       </c>
       <c r="M8" t="n">
-        <v>239.8514596786219</v>
+        <v>444.58</v>
       </c>
       <c r="N8" t="n">
-        <v>184.1</v>
+        <v>45.98</v>
       </c>
     </row>
     <row r="9">
@@ -79642,40 +79642,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>32.64599999999999</v>
+        <v>18.87555555555554</v>
       </c>
       <c r="D9" t="n">
-        <v>6.554000000000009</v>
+        <v>23.54172839506174</v>
       </c>
       <c r="E9" t="n">
-        <v>12.81251851851852</v>
+        <v>2.382716049382718</v>
       </c>
       <c r="F9" t="n">
-        <v>1.387481481481482</v>
+        <v>17.22858710562414</v>
       </c>
       <c r="G9" t="n">
-        <v>34</v>
+        <v>32.02570035055632</v>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>3.34571254381954</v>
       </c>
       <c r="I9" t="n">
         <v>7.8</v>
       </c>
       <c r="J9" t="n">
-        <v>40.52498491083677</v>
+        <v>12.50666666666667</v>
       </c>
       <c r="K9" t="n">
-        <v>15.08901508916318</v>
+        <v>1.293333333333333</v>
       </c>
       <c r="L9" t="n">
-        <v>1.185999999999993</v>
+        <v>28.62</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>13.26</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="10">
@@ -79914,22 +79914,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>52.79999999999998</v>
+        <v>640.4399999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>136.2</v>
+        <v>199.32</v>
       </c>
       <c r="E15" t="n">
-        <v>293.5189720589868</v>
+        <v>14.24</v>
       </c>
       <c r="F15" t="n">
-        <v>161.7410279410132</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>66.5588888888889</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>5.781111111111113</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -79938,16 +79938,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>28.34</v>
+        <v>98.10000000000001</v>
       </c>
       <c r="L15" t="n">
-        <v>52.8</v>
+        <v>10.9</v>
       </c>
       <c r="M15" t="n">
-        <v>12.65999999999994</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>152.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -79958,40 +79958,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>34.58962962962964</v>
+        <v>149.2</v>
       </c>
       <c r="D16" t="n">
-        <v>165.8103703703704</v>
+        <v>16.57777777777778</v>
       </c>
       <c r="E16" t="n">
-        <v>481.3200000000001</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>144.7945967862194</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>364.3600966946914</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>401.954500091528</v>
+        <v>226.7654320987654</v>
       </c>
       <c r="I16" t="n">
-        <v>576.6914064136588</v>
+        <v>25.19615912208505</v>
       </c>
       <c r="J16" t="n">
-        <v>706.7671371075975</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>560.0620567987314</v>
+        <v>1051.967901234568</v>
       </c>
       <c r="L16" t="n">
-        <v>331.0793996800122</v>
+        <v>116.8853223593965</v>
       </c>
       <c r="M16" t="n">
-        <v>98.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>318.8000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -80002,40 +80002,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>22.2</v>
+        <v>19.76</v>
       </c>
       <c r="D17" t="n">
         <v>37</v>
       </c>
       <c r="E17" t="n">
-        <v>78.2697037037037</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>84.5302962962963</v>
+        <v>91.2</v>
       </c>
       <c r="G17" t="n">
-        <v>25.03333333333333</v>
+        <v>11.9971254381954</v>
       </c>
       <c r="H17" t="n">
-        <v>25.03777777777778</v>
+        <v>46.86858710562414</v>
       </c>
       <c r="I17" t="n">
-        <v>19.63375308641975</v>
+        <v>5.174287456180461</v>
       </c>
       <c r="J17" t="n">
-        <v>14.49513580246913</v>
+        <v>20.16</v>
       </c>
       <c r="K17" t="n">
-        <v>22.72600000000006</v>
+        <v>62.54</v>
       </c>
       <c r="L17" t="n">
-        <v>11.90955555555556</v>
+        <v>6.7</v>
       </c>
       <c r="M17" t="n">
-        <v>29.05399999999994</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>3.110444444444438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -80050,40 +80050,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>932.4</v>
+        <v>511.7964444444444</v>
       </c>
       <c r="D18" t="n">
-        <v>1955.779274437525</v>
+        <v>1360.8</v>
       </c>
       <c r="E18" t="n">
-        <v>589.6207255624753</v>
+        <v>1006.292609870416</v>
       </c>
       <c r="F18" t="n">
-        <v>1371.518260281297</v>
+        <v>1186.700558036945</v>
       </c>
       <c r="G18" t="n">
-        <v>711.3545902274697</v>
+        <v>429.0184119106711</v>
       </c>
       <c r="H18" t="n">
-        <v>996.1123076923076</v>
+        <v>967.6777336641853</v>
       </c>
       <c r="I18" t="n">
-        <v>762.3400000000003</v>
+        <v>826.3861290322569</v>
       </c>
       <c r="J18" t="n">
-        <v>892.6189230769223</v>
+        <v>1191.160827626137</v>
       </c>
       <c r="K18" t="n">
-        <v>840.9287692307698</v>
+        <v>506.7753096774211</v>
       </c>
       <c r="L18" t="n">
-        <v>1417.401076923077</v>
+        <v>1085.249399007444</v>
       </c>
       <c r="M18" t="n">
-        <v>370.9989230769226</v>
+        <v>703.1506009925557</v>
       </c>
       <c r="N18" t="n">
-        <v>701.4</v>
+        <v>1122.003555555556</v>
       </c>
     </row>
     <row r="19">
@@ -80094,40 +80094,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>174.86</v>
+        <v>247.32</v>
       </c>
       <c r="D19" t="n">
-        <v>146.1307485308812</v>
+        <v>27.48</v>
       </c>
       <c r="E19" t="n">
-        <v>40.04925146911886</v>
+        <v>425.5200000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>179</v>
+        <v>286.1399999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>304.8611111111111</v>
+        <v>424.52</v>
       </c>
       <c r="H19" t="n">
-        <v>208.4588888888889</v>
+        <v>240.78</v>
       </c>
       <c r="I19" t="n">
-        <v>91.64</v>
+        <v>21.84</v>
       </c>
       <c r="J19" t="n">
-        <v>130.04</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>125.8</v>
+        <v>336.96</v>
       </c>
       <c r="L19" t="n">
-        <v>204.2</v>
+        <v>37.44</v>
       </c>
       <c r="M19" t="n">
-        <v>249.0599999999999</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>193.8999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -80138,10 +80138,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>343.26</v>
+        <v>554.2361290322584</v>
       </c>
       <c r="D20" t="n">
-        <v>38.14</v>
+        <v>61.58179211469538</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -80150,28 +80150,28 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>117.6</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>341.1412637867762</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>36.45273301334551</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>76.14540287989045</v>
+        <v>17.26387096774157</v>
       </c>
       <c r="L20" t="n">
-        <v>8.460600319987828</v>
+        <v>1.918207885304619</v>
       </c>
       <c r="M20" t="n">
-        <v>148.32</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>16.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -80182,37 +80182,37 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>22.5</v>
+        <v>27.9</v>
       </c>
       <c r="D21" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>14.72666666666667</v>
+        <v>13.86</v>
       </c>
       <c r="H21" t="n">
-        <v>11.20222222222222</v>
+        <v>11.98</v>
       </c>
       <c r="I21" t="n">
-        <v>1.071111111111111</v>
+        <v>1.16</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>4</v>
+        <v>12.6</v>
       </c>
       <c r="L21" t="n">
-        <v>9.044444444444444</v>
+        <v>1.4</v>
       </c>
       <c r="M21" t="n">
-        <v>0.9555555555555556</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
